--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A66F40A-6A4D-4F95-A7B2-CE44F8F024F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876A3BA0-08D4-4E05-AA2C-F210C434B779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3210" windowWidth="21600" windowHeight="12750" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="4110" yWindow="1995" windowWidth="21600" windowHeight="12750" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tables" sheetId="1" r:id="rId1"/>
-    <sheet name="References" sheetId="2" r:id="rId2"/>
+    <sheet name="Tasks" sheetId="3" r:id="rId1"/>
+    <sheet name="Tables" sheetId="1" r:id="rId2"/>
+    <sheet name="References" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Table</t>
   </si>
@@ -143,6 +144,12 @@
   </si>
   <si>
     <t>Bball.VbClasseslnterfaces</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -244,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -258,6 +265,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,10 +579,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80042610-4475-439E-8D8A-B99F3A7253D1}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDC7D53-38AE-4E14-9D16-5C0AB081DB88}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -635,7 +669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5D99A2-B987-4E19-A171-ABA2F3A75912}">
   <dimension ref="A1:L13"/>
   <sheetViews>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876A3BA0-08D4-4E05-AA2C-F210C434B779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F06A15-C427-4DBC-AE2C-6220000D4BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="1995" windowWidth="21600" windowHeight="12750" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="1380" yWindow="465" windowWidth="24840" windowHeight="14820" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Table</t>
   </si>
@@ -150,6 +150,72 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
+  </si>
+  <si>
+    <t>AdjustmentsCodes</t>
+  </si>
+  <si>
+    <t>AdjustmentsDaily</t>
+  </si>
+  <si>
+    <t>BoxScoresLastSMin</t>
+  </si>
+  <si>
+    <t>Leaguelnfo</t>
+  </si>
+  <si>
+    <t>Lines</t>
+  </si>
+  <si>
+    <t>MatchupsResults</t>
+  </si>
+  <si>
+    <t>ParmTable</t>
+  </si>
+  <si>
+    <t>Plays</t>
+  </si>
+  <si>
+    <t>Seasonlnfo</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>TeamStats</t>
+  </si>
+  <si>
+    <t>TeamStatsAverages</t>
+  </si>
+  <si>
+    <t>TeamStrength</t>
+  </si>
+  <si>
+    <t>TodaysMatchups</t>
+  </si>
+  <si>
+    <t>TodaysPlays</t>
+  </si>
+  <si>
+    <t>UserLeagueParms</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>1 per BoxScore</t>
+  </si>
+  <si>
+    <t>1 per League</t>
+  </si>
+  <si>
+    <t>Multiple per Matchup</t>
+  </si>
+  <si>
+    <t>1 per SubSeason per Season per League</t>
   </si>
 </sst>
 </file>
@@ -582,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80042610-4475-439E-8D8A-B99F3A7253D1}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -606,17 +672,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDC7D53-38AE-4E14-9D16-5C0AB081DB88}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,6 +728,108 @@
       </c>
       <c r="C4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -673,8 +842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5D99A2-B987-4E19-A171-ABA2F3A75912}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F06A15-C427-4DBC-AE2C-6220000D4BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE7B5D3-BDBB-4257-BC88-03ED1262ECDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="465" windowWidth="24840" windowHeight="14820" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="57900" yWindow="1065" windowWidth="28395" windowHeight="13335" activeTab="3" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
     <sheet name="Tables" sheetId="1" r:id="rId2"/>
     <sheet name="References" sheetId="2" r:id="rId3"/>
+    <sheet name="Adj Page" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Table</t>
   </si>
@@ -216,13 +217,49 @@
   </si>
   <si>
     <t>1 per SubSeason per Season per League</t>
+  </si>
+  <si>
+    <t>ng-click="ProcessUpdates()</t>
+  </si>
+  <si>
+    <t>ng-click="OpenAdjustmentEntryModal()</t>
+  </si>
+  <si>
+    <t>Iterate Adjs</t>
+  </si>
+  <si>
+    <t>GreyOutAdjustmentList</t>
+  </si>
+  <si>
+    <t>ajx.AjaxPost(UrlPostProcessUpdates, ocAdjustmentDTO)</t>
+  </si>
+  <si>
+    <t>GetAdjustments(GetAdjustmentsParms)</t>
+  </si>
+  <si>
+    <t>ShowAdjustmentList()</t>
+  </si>
+  <si>
+    <t>ajx.AjaxGet(UrlGetAdjustments, { LeagueName: Parms.LeagueName })   // Get Adjustments from server</t>
+  </si>
+  <si>
+    <t>.then(data =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         fProcessAdjustments.process(data);</t>
+  </si>
+  <si>
+    <t>DisplayAdjustments(Parms, ocAdjustments);</t>
+  </si>
+  <si>
+    <t>&lt;tr ng-repeat="oAdjustment in ocAdjustments"&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +281,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -317,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -332,6 +375,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,6 +404,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>562298</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E6371A-3163-49DB-96D6-DDB969449AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="400050"/>
+          <a:ext cx="2314898" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDC7D53-38AE-4E14-9D16-5C0AB081DB88}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1187,4 +1293,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF307F37-89F6-4478-B427-6D1C32C2CB55}">
+  <dimension ref="B7:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE7B5D3-BDBB-4257-BC88-03ED1262ECDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6478C151-BE69-439D-9F84-AB1618E93FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57900" yWindow="1065" windowWidth="28395" windowHeight="13335" activeTab="3" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26895" windowHeight="14505" activeTab="5" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
     <sheet name="Tables" sheetId="1" r:id="rId2"/>
     <sheet name="References" sheetId="2" r:id="rId3"/>
     <sheet name="Adj Page" sheetId="4" r:id="rId4"/>
+    <sheet name="Adj Point Pct" sheetId="5" r:id="rId5"/>
+    <sheet name="BoxScore Seed Screen" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
   <si>
     <t>Table</t>
   </si>
@@ -253,6 +256,138 @@
   </si>
   <si>
     <t>&lt;tr ng-repeat="oAdjustment in ocAdjustments"&gt;</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>AdjAmt</t>
+  </si>
+  <si>
+    <t>Pt1</t>
+  </si>
+  <si>
+    <t>Pt2</t>
+  </si>
+  <si>
+    <t>Pt3</t>
+  </si>
+  <si>
+    <t>Calc</t>
+  </si>
+  <si>
+    <t>Adjusted Amts</t>
+  </si>
+  <si>
+    <t>1) Tot Pts</t>
+  </si>
+  <si>
+    <t>2) AdjPct</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>30 teams total</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2 rows per team (Away &amp; Home)</t>
+  </si>
+  <si>
+    <t>Take the Average Points (1, 2 &amp; 3 Pointers) Scored &amp; Allowed for each Team and each Venue (Away &amp; Home)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Bball.DAL</t>
+  </si>
+  <si>
+    <t>Get BSS rows</t>
+  </si>
+  <si>
+    <t>Create Stored Proc to Generate the BoxScoresSeeds (BSS) Table (Its already created)</t>
+  </si>
+  <si>
+    <t>Create Stored Proc to get BSS rows by LeagueName &amp; Season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call prev SP and return rows to API thru Bus Layer </t>
+  </si>
+  <si>
+    <t>API will send JSON BSS collection(ocBSS)  to AngJS</t>
+  </si>
+  <si>
+    <t>ocBSS will have 1 obj per team will all info</t>
+  </si>
+  <si>
+    <t>iterate thru ocBSS via ng-repeat to create rows above</t>
+  </si>
+  <si>
+    <t>We will go over details on how to create</t>
+  </si>
+  <si>
+    <t>each Team will have a &lt;tr&gt;</t>
+  </si>
+  <si>
+    <t>Each col in tr is &lt;td&gt;</t>
+  </si>
+  <si>
+    <t>each td will have data / ng-model</t>
+  </si>
+  <si>
+    <t>Multi row TDs will contain a TABLE with 2 TRs with 1 TD each</t>
+  </si>
+  <si>
+    <t>Last Years Stats (right most columns) will be team averages in BSS table</t>
+  </si>
+  <si>
+    <t>This Years adjusted stats will initially be the same as Last Years Stats</t>
+  </si>
+  <si>
+    <t>This Years adjusted stats will then be Adjusted based on user "Adjustment"  entry (3rd col)</t>
+  </si>
+  <si>
+    <t>upon "UPDATE" the JSON will be sent back to the DAL and a Stored Proc</t>
+  </si>
+  <si>
+    <t>The stored proc will update the BSS table w Adjusted stats and the create Seed rows into the BoxScore Table</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>HTML Table Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Select TOP 1 EndDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM [00TTI_LeagueScores].[dbo].[SeasonInfo] si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  where LeagueName = 'NBA'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   AND si.Season &lt; '1920'</t>
+  </si>
+  <si>
+    <t>and si.SubSeason &lt; '2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  order by StartDate desc</t>
   </si>
 </sst>
 </file>
@@ -360,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -389,6 +524,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,6 +590,55 @@
         <a:xfrm>
           <a:off x="809625" y="400050"/>
           <a:ext cx="2314898" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>382933</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>67073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DACEF85-7871-448E-BAEF-B3F53764CC93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="13851283" cy="2848373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1299,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF307F37-89F6-4478-B427-6D1C32C2CB55}">
   <dimension ref="B7:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1386,4 +1581,288 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133B7AB1-EBB5-464D-9336-80F19EC6C35C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>-3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <f>B3 * $B$10</f>
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="0">B4 * $B$10</f>
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <f>B3 + B4 * 2 + B5 * 3</f>
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <f>D3 + D4 * 2 + D5 * 3</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <f xml:space="preserve"> 1 + (B2 / B8)</f>
+        <v>0.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1401EBAE-9336-4B4D-A642-B50D738A0A79}">
+  <dimension ref="B12:F52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6478C151-BE69-439D-9F84-AB1618E93FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C7D841-03C3-4D29-B095-08A41E8FE55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26895" windowHeight="14505" activeTab="5" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="1575" yWindow="405" windowWidth="26835" windowHeight="14535" activeTab="2" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
     <sheet name="Tables" sheetId="1" r:id="rId2"/>
     <sheet name="References" sheetId="2" r:id="rId3"/>
-    <sheet name="Adj Page" sheetId="4" r:id="rId4"/>
-    <sheet name="Adj Point Pct" sheetId="5" r:id="rId5"/>
-    <sheet name="BoxScore Seed Screen" sheetId="6" r:id="rId6"/>
+    <sheet name="DLLs" sheetId="7" r:id="rId4"/>
+    <sheet name="Adj Page" sheetId="4" r:id="rId5"/>
+    <sheet name="Adj Point Pct" sheetId="5" r:id="rId6"/>
+    <sheet name="BoxScore Seed Screen" sheetId="6" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tables!$A$1:$F$24</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,8 +39,57 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Keith</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E9F86DB3-32F0-4C4D-B010-4B9243F98F96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Table_Counts.sql</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Keith</author>
+  </authors>
+  <commentList>
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{DB85BA36-67CC-42E5-A1D1-F06EF8F0A936}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">net45, 46 &amp; 47 all seem to have the same Unity.Mvc.dll
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="221">
   <si>
     <t>Table</t>
   </si>
@@ -388,13 +440,557 @@
   </si>
   <si>
     <t xml:space="preserve">  order by StartDate desc</t>
+  </si>
+  <si>
+    <t>UnityConfig.cs</t>
+  </si>
+  <si>
+    <t>using Unity;</t>
+  </si>
+  <si>
+    <t>5.11.1.0</t>
+  </si>
+  <si>
+    <t>Unity.Mvc</t>
+  </si>
+  <si>
+    <t>1.4.0.0</t>
+  </si>
+  <si>
+    <t>Unity.Mvc5</t>
+  </si>
+  <si>
+    <r>
+      <t>D:\My Documents\wwwroot\Test\MVCUsingUnity\packages\Unity.Mvc5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.1.4.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\lib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>net45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\Unity.Mvc5.dll</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\packages\Unity.Mvc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5.11.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\lib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>net47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\Unity.Mvc.dll</t>
+    </r>
+  </si>
+  <si>
+    <t>Unity.Container</t>
+  </si>
+  <si>
+    <t>D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\packages\Unity.Container.5.11.6\lib\net47\Unity.Container.dll</t>
+  </si>
+  <si>
+    <t>5.11.6.0</t>
+  </si>
+  <si>
+    <r>
+      <t>D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\packages\Unity.Container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5.11.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\lib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>net47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\Unity.Container.dll</t>
+    </r>
+  </si>
+  <si>
+    <t>Unity.Abstractions</t>
+  </si>
+  <si>
+    <t>5.11.5.0</t>
+  </si>
+  <si>
+    <r>
+      <t>D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\packages\Unity.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.11.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\lib\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>net47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\Unity.Abstractions.dll</t>
+    </r>
+  </si>
+  <si>
+    <t>BBallMVC</t>
+  </si>
+  <si>
+    <t>System.Web.Mvc</t>
+  </si>
+  <si>
+    <t>5.2.3.0</t>
+  </si>
+  <si>
+    <r>
+      <t>D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\packages\Microsoft.AspNet.Mvc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5.2.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\lib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\net45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\System.Web.Mvc.dll</t>
+    </r>
+  </si>
+  <si>
+    <t>D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\packages\Unity.Abstractions.5.11.5\lib\net47\Unity.Abstractions.dll</t>
+  </si>
+  <si>
+    <t>Bball.Unity</t>
+  </si>
+  <si>
+    <t>D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\</t>
+  </si>
+  <si>
+    <t>\Unity.Mvc.5.11.1\lib\net47\Unity.Mvc.dll</t>
+  </si>
+  <si>
+    <t>D:\My Documents\wwwroot\Test\MVCUsingUnity\</t>
+  </si>
+  <si>
+    <t>\Unity.Mvc5.1.4.0\lib\net45\Unity.Mvc5.dll</t>
+  </si>
+  <si>
+    <t>\Microsoft.AspNet.Mvc.5.2.3\lib\net45\System.Web.Mvc.dll</t>
+  </si>
+  <si>
+    <t>\Unity.5.11.5\lib\net47\Unity.Abstractions.dll</t>
+  </si>
+  <si>
+    <t>\Unity.Container.5.11.6\lib\net47\Unity.Container.dll</t>
+  </si>
+  <si>
+    <t>\Unity.Abstractions.5.11.5\lib\net47\Unity.Abstractions.dll</t>
+  </si>
+  <si>
+    <t>packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>dll same</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Net Ver</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>uspCalcTM - step 3</t>
+  </si>
+  <si>
+    <t>uspCalcTM - step 4</t>
+  </si>
+  <si>
+    <t>Manually</t>
+  </si>
+  <si>
+    <t>Adj Entry Modal</t>
+  </si>
+  <si>
+    <t>BAL.LoadBoxScores</t>
+  </si>
+  <si>
+    <t>Adjustment type descriptions</t>
+  </si>
+  <si>
+    <t>1 per type - around 7</t>
+  </si>
+  <si>
+    <t>Team, Injury, League, Misc</t>
+  </si>
+  <si>
+    <t>Stats for last 5 mins of 4th qtr</t>
+  </si>
+  <si>
+    <t>During Rotation update</t>
+  </si>
+  <si>
+    <t>TO BE implemented</t>
+  </si>
+  <si>
+    <t>Yesterday's results</t>
+  </si>
+  <si>
+    <t>As needed</t>
+  </si>
+  <si>
+    <t>Misc Parm info</t>
+  </si>
+  <si>
+    <t>If Team changes name, new entry created</t>
+  </si>
+  <si>
+    <t>1 per Active Team per league</t>
+  </si>
+  <si>
+    <t>empty - looks like TeamStatsAverages predesessor</t>
+  </si>
+  <si>
+    <t>probably not used</t>
+  </si>
+  <si>
+    <t>TM UI</t>
+  </si>
+  <si>
+    <t>1 per User</t>
+  </si>
+  <si>
+    <t>Name &amp; PW</t>
+  </si>
+  <si>
+    <t>1 per User per League</t>
+  </si>
+  <si>
+    <t>Gen calc info - GB, Wt, Pct</t>
+  </si>
+  <si>
+    <t>Old - use TodaysPlays</t>
+  </si>
+  <si>
+    <t>Recipients</t>
+  </si>
+  <si>
+    <t>AdjustmentsOtSide</t>
+  </si>
+  <si>
+    <t>Not created</t>
+  </si>
+  <si>
+    <t>1 per half side point per league - max 15 pts</t>
+  </si>
+  <si>
+    <t>Amt to adj OT depending on SideLine</t>
+  </si>
+  <si>
+    <t>1 per Recipient</t>
+  </si>
+  <si>
+    <t>Email of followers - make generic</t>
+  </si>
+  <si>
+    <t>1 per Game per Day per League per User</t>
+  </si>
+  <si>
+    <t>Deprecated</t>
+  </si>
+  <si>
+    <t>1 per Team per Day per GB per League per User</t>
+  </si>
+  <si>
+    <t>Team Avg 1, 2, 3PTers for GameBack</t>
+  </si>
+  <si>
+    <t>1 per Team per Day per GB per League</t>
+  </si>
+  <si>
+    <t>TS, Scored/Allowed &amp; BxSc &amp; TM Pcts</t>
+  </si>
+  <si>
+    <t>TMs used by TM UI</t>
+  </si>
+  <si>
+    <t>Sub Season St/End, Includes / Bypasses</t>
+  </si>
+  <si>
+    <t>TMs, Per, Mins, OT, Multi Yr</t>
+  </si>
+  <si>
+    <t>1 per Team per Game</t>
+  </si>
+  <si>
+    <t>Sum of Teams Adj for that day</t>
+  </si>
+  <si>
+    <t>DAL.AdjustmentsDailyDO</t>
+  </si>
+  <si>
+    <t>Max Date</t>
+  </si>
+  <si>
+    <t>Tomorrow</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>GameDate</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>uspCalcTM - step 2 - uspInsertMatchupResults</t>
+  </si>
+  <si>
+    <t>uspCalcTM - step 2 - uspQueryCalcTeamStrength</t>
+  </si>
+  <si>
+    <t>Deprecated???</t>
+  </si>
+  <si>
+    <t>BU St Procs</t>
+  </si>
+  <si>
+    <t>What is @TmStrAdjPct</t>
+  </si>
+  <si>
+    <t>Doc all Tm Str</t>
+  </si>
+  <si>
+    <t>in CalcTMs - Part 4 Query tm</t>
+  </si>
+  <si>
+    <t>Unity Packages</t>
+  </si>
+  <si>
+    <t>5.11.7</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>5.11.6</t>
+  </si>
+  <si>
+    <t>5.11.8</t>
+  </si>
+  <si>
+    <t>5.11.1</t>
+  </si>
+  <si>
+    <t>5.11.5</t>
+  </si>
+  <si>
+    <t>Installed</t>
+  </si>
+  <si>
+    <t>Latest</t>
+  </si>
+  <si>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Projects</t>
+  </si>
+  <si>
+    <r>
+      <t>D:\My Documents\wwwroot\Test\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mrroot123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\mrroot123\BballMVCproject\</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +1018,34 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -495,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -535,6 +1159,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,6 +1189,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2810267</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>162699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B5F274-7CD6-4EA5-9841-DB6E3A81EE03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="2810267" cy="5544324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2686425</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>124667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F688DBF4-48CA-4884-84D3-96F297FB27CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333875" y="409575"/>
+          <a:ext cx="2686425" cy="6001592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -601,7 +1330,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -947,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80042610-4475-439E-8D8A-B99F3A7253D1}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C12" sqref="C12:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,12 +1687,33 @@
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>43989</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -972,22 +1722,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDC7D53-38AE-4E14-9D16-5C0AB081DB88}">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDC7D53-38AE-4E14-9D16-5C0AB081DB88}">
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,163 +1750,503 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F24" xr:uid="{4CA2DF3C-A29E-4198-8908-251FC956AE4C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
+    <sortCondition ref="D21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5D99A2-B987-4E19-A171-ABA2F3A75912}">
-  <dimension ref="A1:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5D99A2-B987-4E19-A171-ABA2F3A75912}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="4" max="10" width="7.140625" customWidth="1"/>
+    <col min="15" max="15" width="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1485,16 +2578,359 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="27"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="22">
+        <v>47</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="N25" t="s">
+        <v>146</v>
+      </c>
+      <c r="O25" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="21">
+        <v>45</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="N26" t="s">
+        <v>146</v>
+      </c>
+      <c r="O26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27">
+        <v>45</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="N27" t="s">
+        <v>146</v>
+      </c>
+      <c r="O27" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28">
+        <v>47</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="N28" t="s">
+        <v>146</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29">
+        <v>47</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="N29" t="s">
+        <v>146</v>
+      </c>
+      <c r="O29" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F30" s="21"/>
+      <c r="N30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="N31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32">
+        <v>45</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="N32" t="s">
+        <v>146</v>
+      </c>
+      <c r="O32" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33">
+        <v>47</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="N33" t="s">
+        <v>146</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34">
+        <v>47</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="N34" t="s">
+        <v>146</v>
+      </c>
+      <c r="O34" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F62BD8A-AB80-4EAF-ADD1-A729FC57348B}">
+  <dimension ref="D2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF307F37-89F6-4478-B427-6D1C32C2CB55}">
   <dimension ref="B7:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1583,7 +3019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133B7AB1-EBB5-464D-9336-80F19EC6C35C}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1683,11 +3119,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1401EBAE-9336-4B4D-A642-B50D738A0A79}">
   <dimension ref="B12:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C7D841-03C3-4D29-B095-08A41E8FE55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D7DC86-313D-4D56-B10A-EEC7F44814B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="405" windowWidth="26835" windowHeight="14535" activeTab="2" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="405" yWindow="150" windowWidth="26550" windowHeight="14670" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
     <sheet name="Tables" sheetId="1" r:id="rId2"/>
     <sheet name="References" sheetId="2" r:id="rId3"/>
     <sheet name="DLLs" sheetId="7" r:id="rId4"/>
-    <sheet name="Adj Page" sheetId="4" r:id="rId5"/>
+    <sheet name="UI Adj Page" sheetId="4" r:id="rId5"/>
     <sheet name="Adj Point Pct" sheetId="5" r:id="rId6"/>
-    <sheet name="BoxScore Seed Screen" sheetId="6" r:id="rId7"/>
+    <sheet name="Pt Value Analysis" sheetId="8" r:id="rId7"/>
+    <sheet name="BoxScore Seed Screen" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tables!$A$1:$F$24</definedName>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="235">
   <si>
     <t>Table</t>
   </si>
@@ -224,9 +225,6 @@
   </si>
   <si>
     <t>Lines</t>
-  </si>
-  <si>
-    <t>MatchupsResults</t>
   </si>
   <si>
     <t>ParmTable</t>
@@ -907,9 +905,6 @@
     <t>variable</t>
   </si>
   <si>
-    <t>uspCalcTM - step 2 - uspInsertMatchupResults</t>
-  </si>
-  <si>
     <t>uspCalcTM - step 2 - uspQueryCalcTeamStrength</t>
   </si>
   <si>
@@ -984,6 +979,54 @@
       </rPr>
       <t>\mrroot123\BballMVCproject\</t>
     </r>
+  </si>
+  <si>
+    <t>Fix Excluded BxSc s</t>
+  </si>
+  <si>
+    <t>Convert Adjs - no ranges</t>
+  </si>
+  <si>
+    <t>Handle Postponed games</t>
+  </si>
+  <si>
+    <t>Half Line analysis</t>
+  </si>
+  <si>
+    <t>Get Half Lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjustments - Recent History, OT, TV, </t>
+  </si>
+  <si>
+    <t>Calc Threshold via Volity</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>#usp_Backup_00TTI_LeagueScores.sql</t>
+  </si>
+  <si>
+    <t>verfiy</t>
+  </si>
+  <si>
+    <t>Verify_Boxscores.sql</t>
+  </si>
+  <si>
+    <t>Lg, TV, OT adjs per TEAM</t>
+  </si>
+  <si>
+    <t>0Seq</t>
+  </si>
+  <si>
+    <t>TodaysMatchupsResults</t>
+  </si>
+  <si>
+    <t>uspCalcTM - step 2 - uspInsertTodaysMatchupsResults</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1133,7 +1176,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1171,6 +1213,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1676,58 +1721,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80042610-4475-439E-8D8A-B99F3A7253D1}">
-  <dimension ref="A1:C4"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:H15"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30">
         <v>43989</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25">
+        <v>43989</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.1</v>
+      </c>
+      <c r="B4" s="25">
+        <v>43989</v>
+      </c>
+      <c r="D4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>207</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25">
+        <v>43991</v>
+      </c>
+      <c r="C5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25">
+        <v>43991</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4.3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="25">
+        <v>44084</v>
+      </c>
+      <c r="D10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6.1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDC7D53-38AE-4E14-9D16-5C0AB081DB88}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,14 +1918,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>200</v>
+      <c r="D1" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,16 +1933,16 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -1791,10 +1959,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1811,10 +1979,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1831,10 +1999,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1845,16 +2013,16 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -1865,16 +2033,16 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" t="s">
         <v>192</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>193</v>
       </c>
-      <c r="D7" t="s">
-        <v>194</v>
-      </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -1882,19 +2050,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1902,19 +2070,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
         <v>168</v>
       </c>
-      <c r="C9" t="s">
-        <v>169</v>
-      </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1925,16 +2093,16 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1945,16 +2113,16 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -1965,16 +2133,16 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1982,19 +2150,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" t="s">
         <v>164</v>
       </c>
-      <c r="C13" t="s">
-        <v>165</v>
-      </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2002,19 +2170,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -2022,19 +2190,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2042,19 +2210,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
         <v>173</v>
       </c>
-      <c r="C16" t="s">
-        <v>174</v>
-      </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2062,19 +2230,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
         <v>171</v>
       </c>
-      <c r="C17" t="s">
-        <v>172</v>
-      </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2082,19 +2250,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
         <v>181</v>
       </c>
-      <c r="C18" t="s">
-        <v>182</v>
-      </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2102,19 +2270,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" t="s">
         <v>177</v>
       </c>
-      <c r="B19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" t="s">
-        <v>178</v>
-      </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2122,19 +2290,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -2142,19 +2310,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -2162,19 +2330,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" t="s">
         <v>187</v>
       </c>
-      <c r="C22" t="s">
-        <v>188</v>
-      </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -2182,19 +2350,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" t="s">
         <v>185</v>
       </c>
-      <c r="C23" t="s">
-        <v>186</v>
-      </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -2202,19 +2370,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -2233,9 +2401,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5D99A2-B987-4E19-A171-ABA2F3A75912}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
@@ -2579,162 +2748,162 @@
       <c r="L13" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" t="s">
         <v>216</v>
       </c>
-      <c r="D15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="F16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" t="s">
         <v>211</v>
       </c>
-      <c r="C16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" t="s">
-        <v>211</v>
-      </c>
-      <c r="E16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E17" t="s">
-        <v>218</v>
-      </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" t="s">
         <v>212</v>
       </c>
-      <c r="D18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
+      <c r="B20" s="26"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
         <v>149</v>
       </c>
-      <c r="D21" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>137</v>
+      <c r="B22" s="19" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="D25" s="21">
+        <v>47</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="N25" t="s">
+        <v>145</v>
+      </c>
+      <c r="O25" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="22">
-        <v>47</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="N25" t="s">
-        <v>146</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="D26" s="20">
+        <v>45</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="Q25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="N26" t="s">
+        <v>145</v>
+      </c>
+      <c r="O26" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q26" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="21">
-        <v>45</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="N26" t="s">
-        <v>146</v>
-      </c>
-      <c r="O26" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
-      </c>
-      <c r="C27" t="s">
-        <v>134</v>
       </c>
       <c r="D27">
         <v>45</v>
@@ -2742,25 +2911,25 @@
       <c r="E27" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>138</v>
+      <c r="F27" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="N27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
         <v>129</v>
-      </c>
-      <c r="C28" t="s">
-        <v>130</v>
       </c>
       <c r="D28">
         <v>47</v>
@@ -2768,25 +2937,25 @@
       <c r="E28" t="b">
         <v>0</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>138</v>
+      <c r="F28" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="N28" t="s">
-        <v>146</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="Q28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>125</v>
+      <c r="B29" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29">
         <v>47</v>
@@ -2794,104 +2963,104 @@
       <c r="E29" t="b">
         <v>1</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>138</v>
+      <c r="F29" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="N29" t="s">
+        <v>145</v>
+      </c>
+      <c r="O29" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F30" s="20"/>
+      <c r="N30" t="s">
         <v>146</v>
       </c>
-      <c r="O29" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F30" s="21"/>
-      <c r="N30" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="N31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="N31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+      <c r="C32" t="s">
         <v>133</v>
-      </c>
-      <c r="C32" t="s">
-        <v>134</v>
       </c>
       <c r="D32">
         <v>45</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>138</v>
+      <c r="F32" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="N32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
         <v>129</v>
-      </c>
-      <c r="C33" t="s">
-        <v>130</v>
       </c>
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>138</v>
+      <c r="E33" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="N33" t="s">
-        <v>146</v>
-      </c>
-      <c r="O33" s="12" t="s">
         <v>145</v>
       </c>
+      <c r="O33" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="Q33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>125</v>
+      <c r="B34" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34">
         <v>47</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>138</v>
+      <c r="F34" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="N34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2903,6 +3072,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F62BD8A-AB80-4EAF-ADD1-A729FC57348B}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="D2"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2916,7 +3086,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2928,9 +3098,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF307F37-89F6-4478-B427-6D1C32C2CB55}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B7:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -2940,77 +3111,77 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
-        <v>71</v>
+      <c r="B29" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
+      <c r="B32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3021,36 +3192,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133B7AB1-EBB5-464D-9336-80F19EC6C35C}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>74</v>
       </c>
       <c r="B2">
         <v>-3</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>75</v>
+      <c r="A3" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -3061,8 +3233,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>76</v>
+      <c r="A4" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -3073,8 +3245,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>77</v>
+      <c r="A5" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -3085,16 +3257,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>83</v>
+      <c r="A7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>80</v>
+      <c r="A8" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="B8">
         <f>B3 + B4 * 2 + B5 * 3</f>
@@ -3106,8 +3278,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>81</v>
+      <c r="A10" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="B10">
         <f xml:space="preserve"> 1 + (B2 / B8)</f>
@@ -3120,7 +3292,153 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17B75FB-3788-4C0A-A5BD-D95698756B72}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-4</v>
+      </c>
+      <c r="B1">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-3</v>
+      </c>
+      <c r="B2">
+        <v>43.12</v>
+      </c>
+      <c r="C2">
+        <f>B2-B1</f>
+        <v>2.519999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>-2</v>
+      </c>
+      <c r="B3">
+        <v>45.51</v>
+      </c>
+      <c r="C3">
+        <f>B3-B2</f>
+        <v>2.3900000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A9" si="0">A3+1</f>
+        <v>-1</v>
+      </c>
+      <c r="B4">
+        <v>47.8</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C9" si="1">B4-B3</f>
+        <v>2.2899999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>50.36</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.5600000000000023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2.6400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>55.23</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>2.2299999999999969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>57.49</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>2.2600000000000051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>59.76</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>2.269999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="28">
+        <f>AVERAGE(C2:C9)</f>
+        <v>2.3949999999999996</v>
+      </c>
+      <c r="D10" s="28">
+        <f>AVERAGE(C4:C7)</f>
+        <v>2.4299999999999997</v>
+      </c>
+      <c r="E10" s="28">
+        <f>AVERAGE(C4:C6)</f>
+        <v>2.4966666666666675</v>
+      </c>
+      <c r="F10" s="28">
+        <f>(B8-B2)/6</f>
+        <v>2.3950000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1401EBAE-9336-4B4D-A642-B50D738A0A79}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="B12:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3139,161 +3457,161 @@
     <row r="16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="C20" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="17" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>109</v>
+      <c r="B41" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D7DC86-313D-4D56-B10A-EEC7F44814B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52ECBF3-B5D5-4852-B53B-A2D226089CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="150" windowWidth="26550" windowHeight="14670" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="405" yWindow="150" windowWidth="26550" windowHeight="14670" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="236">
   <si>
     <t>Table</t>
   </si>
@@ -1027,6 +1027,9 @@
   </si>
   <si>
     <t>uspCalcTM - step 2 - uspInsertTodaysMatchupsResults</t>
+  </si>
+  <si>
+    <t>Rotation - add Season &amp; SubSeason</t>
   </si>
 </sst>
 </file>
@@ -1722,11 +1725,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80042610-4475-439E-8D8A-B99F3A7253D1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,6 +1883,11 @@
         <v>223</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F12">
     <sortCondition ref="A2:A12"/>
@@ -1893,7 +1901,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52ECBF3-B5D5-4852-B53B-A2D226089CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08A65AC-1601-40E3-B578-7C9BF84DAEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="150" windowWidth="26550" windowHeight="14670" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="795" yWindow="1020" windowWidth="26280" windowHeight="14025" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="UI Adj Page" sheetId="4" r:id="rId5"/>
     <sheet name="Adj Point Pct" sheetId="5" r:id="rId6"/>
     <sheet name="Pt Value Analysis" sheetId="8" r:id="rId7"/>
-    <sheet name="BoxScore Seed Screen" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tables!$A$1:$F$24</definedName>
@@ -90,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="210">
   <si>
     <t>Table</t>
   </si>
@@ -335,109 +334,10 @@
     <t>2) AdjPct</t>
   </si>
   <si>
-    <t>3)</t>
-  </si>
-  <si>
     <t>4)</t>
   </si>
   <si>
     <t>Output</t>
-  </si>
-  <si>
-    <t>30 teams total</t>
-  </si>
-  <si>
-    <t>1)</t>
-  </si>
-  <si>
-    <t>2 rows per team (Away &amp; Home)</t>
-  </si>
-  <si>
-    <t>Take the Average Points (1, 2 &amp; 3 Pointers) Scored &amp; Allowed for each Team and each Venue (Away &amp; Home)</t>
-  </si>
-  <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>Bball.DAL</t>
-  </si>
-  <si>
-    <t>Get BSS rows</t>
-  </si>
-  <si>
-    <t>Create Stored Proc to Generate the BoxScoresSeeds (BSS) Table (Its already created)</t>
-  </si>
-  <si>
-    <t>Create Stored Proc to get BSS rows by LeagueName &amp; Season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call prev SP and return rows to API thru Bus Layer </t>
-  </si>
-  <si>
-    <t>API will send JSON BSS collection(ocBSS)  to AngJS</t>
-  </si>
-  <si>
-    <t>ocBSS will have 1 obj per team will all info</t>
-  </si>
-  <si>
-    <t>iterate thru ocBSS via ng-repeat to create rows above</t>
-  </si>
-  <si>
-    <t>We will go over details on how to create</t>
-  </si>
-  <si>
-    <t>each Team will have a &lt;tr&gt;</t>
-  </si>
-  <si>
-    <t>Each col in tr is &lt;td&gt;</t>
-  </si>
-  <si>
-    <t>each td will have data / ng-model</t>
-  </si>
-  <si>
-    <t>Multi row TDs will contain a TABLE with 2 TRs with 1 TD each</t>
-  </si>
-  <si>
-    <t>Last Years Stats (right most columns) will be team averages in BSS table</t>
-  </si>
-  <si>
-    <t>This Years adjusted stats will initially be the same as Last Years Stats</t>
-  </si>
-  <si>
-    <t>This Years adjusted stats will then be Adjusted based on user "Adjustment"  entry (3rd col)</t>
-  </si>
-  <si>
-    <t>upon "UPDATE" the JSON will be sent back to the DAL and a Stored Proc</t>
-  </si>
-  <si>
-    <t>The stored proc will update the BSS table w Adjusted stats and the create Seed rows into the BoxScore Table</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>HTML Table Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Select TOP 1 EndDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FROM [00TTI_LeagueScores].[dbo].[SeasonInfo] si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  where LeagueName = 'NBA'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   AND si.Season &lt; '1920'</t>
-  </si>
-  <si>
-    <t>and si.SubSeason &lt; '2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  order by StartDate desc</t>
   </si>
   <si>
     <t>UnityConfig.cs</t>
@@ -1030,6 +930,81 @@
   </si>
   <si>
     <t>Rotation - add Season &amp; SubSeason</t>
+  </si>
+  <si>
+    <t>AnalysisResults</t>
+  </si>
+  <si>
+    <t>RunTMs</t>
+  </si>
+  <si>
+    <t>RunTMs Result Analysis</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exec TMs from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oard</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Display DailySummary in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DB</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1165,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1196,12 +1171,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1367,55 +1338,6 @@
         <a:xfrm>
           <a:off x="809625" y="400050"/>
           <a:ext cx="2314898" cy="600159"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>382933</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>67073</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DACEF85-7871-448E-BAEF-B3F53764CC93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="381000"/>
-          <a:ext cx="13851283" cy="2848373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1725,11 +1647,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80042610-4475-439E-8D8A-B99F3A7253D1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,16 +1664,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1759,77 +1681,79 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="28">
         <v>43989</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="23">
         <v>43989</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.1</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="23">
         <v>43989</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="23">
         <v>43991</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E5">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="23">
         <v>43991</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1837,7 +1761,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1845,7 +1769,7 @@
         <v>4.2</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,18 +1777,18 @@
         <v>4.3</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <v>44084</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1872,7 +1796,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1880,12 +1804,28 @@
         <v>6.1</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>206</v>
+      </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1893,17 +1833,18 @@
     <sortCondition ref="A2:A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDC7D53-38AE-4E14-9D16-5C0AB081DB88}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,14 +1867,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>199</v>
+      <c r="D1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1941,16 +1882,16 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -1958,39 +1899,39 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1998,39 +1939,39 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -2038,19 +1979,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -2058,39 +1999,39 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -2104,13 +2045,13 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -2118,19 +2059,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2138,19 +2079,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -2158,19 +2099,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" t="s">
         <v>163</v>
-      </c>
-      <c r="C13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" t="s">
-        <v>196</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2178,39 +2119,39 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2218,19 +2159,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2238,19 +2179,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E17" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2258,59 +2199,59 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -2318,19 +2259,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="E21" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -2338,19 +2279,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -2358,46 +2299,67 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F24" xr:uid="{4CA2DF3C-A29E-4198-8908-251FC956AE4C}"/>
+  <autoFilter ref="A1:F24" xr:uid="{4CA2DF3C-A29E-4198-8908-251FC956AE4C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
+      <sortCondition ref="A4"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
     <sortCondition ref="D21"/>
   </sortState>
@@ -2756,162 +2718,162 @@
       <c r="L13" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>214</v>
+      <c r="B15" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="F16" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="F18" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
+      <c r="B20" s="24"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
-        <v>136</v>
+      <c r="B22" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
-        <v>117</v>
+      <c r="B24" s="20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="21">
+        <v>86</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="19">
         <v>47</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>218</v>
+      <c r="F25" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="N25" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="O25" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="Q25" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="20">
+        <v>88</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="18">
         <v>45</v>
       </c>
-      <c r="F26" s="27" t="s">
-        <v>139</v>
+      <c r="F26" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="N26" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="O26" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="Q26" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D27">
         <v>45</v>
@@ -2919,25 +2881,25 @@
       <c r="E27" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>137</v>
+      <c r="F27" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="N27" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="O27" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="Q27" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="D28">
         <v>47</v>
@@ -2945,25 +2907,25 @@
       <c r="E28" t="b">
         <v>0</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>137</v>
+      <c r="F28" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="N28" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="Q28" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D29">
         <v>47</v>
@@ -2971,104 +2933,104 @@
       <c r="E29" t="b">
         <v>1</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>137</v>
+      <c r="F29" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="N29" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="O29" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="Q29" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F30" s="20"/>
+      <c r="F30" s="18"/>
       <c r="N30" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="20"/>
+      <c r="B31" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="18"/>
       <c r="N31" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D32">
         <v>45</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>137</v>
+      <c r="F32" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="N32" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="O32" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="Q32" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="D33">
         <v>47</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>137</v>
+      <c r="E33" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="N33" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="Q33" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D34">
         <v>47</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>137</v>
+      <c r="F34" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="N34" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="O34" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="Q34" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3094,7 +3056,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3204,7 +3166,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,7 +3176,7 @@
         <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3268,8 +3230,8 @@
       <c r="A7" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>82</v>
+      <c r="D7" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3302,10 +3264,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17B75FB-3788-4C0A-A5BD-D95698756B72}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,209 +3384,35 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="28">
-        <f>AVERAGE(C2:C9)</f>
-        <v>2.3949999999999996</v>
-      </c>
-      <c r="D10" s="28">
-        <f>AVERAGE(C4:C7)</f>
-        <v>2.4299999999999997</v>
-      </c>
-      <c r="E10" s="28">
+      <c r="C10" s="26">
+        <f>AVERAGE(C2:C8)</f>
+        <v>2.4128571428571428</v>
+      </c>
+      <c r="D10" s="26">
+        <f>AVERAGE(C3:C7)</f>
+        <v>2.4219999999999997</v>
+      </c>
+      <c r="E10" s="26">
         <f>AVERAGE(C4:C6)</f>
         <v>2.4966666666666675</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="26">
         <f>(B8-B2)/6</f>
         <v>2.3950000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1401EBAE-9336-4B4D-A642-B50D738A0A79}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="B12:F52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="7" width="4.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08A65AC-1601-40E3-B578-7C9BF84DAEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1F579A-E11A-44B9-AF6B-659F83678B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1020" windowWidth="26280" windowHeight="14025" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="30315" yWindow="1515" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
@@ -25,15 +25,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tables!$A$1:$F$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -89,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="217">
   <si>
     <t>Table</t>
   </si>
@@ -1005,6 +1000,27 @@
       </rPr>
       <t>DB</t>
     </r>
+  </si>
+  <si>
+    <t>Uninstalled 8/31/2020</t>
+  </si>
+  <si>
+    <t>Global.asa</t>
+  </si>
+  <si>
+    <t>protected void Application_Start()</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         //Bball.Unity.UnityConfig.RegisterTypes();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         //var x = UnityConfig.Container;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         // 08/30/2020 removed Unity Container</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1665,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
@@ -2372,11 +2388,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5D99A2-B987-4E19-A171-ABA2F3A75912}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3031,6 +3047,63 @@
       </c>
       <c r="Q34" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1F579A-E11A-44B9-AF6B-659F83678B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F71C96-5524-4DA3-9E2D-7B1A9CBD1E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30315" yWindow="1515" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="480" yWindow="855" windowWidth="24150" windowHeight="13470" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
@@ -22,10 +22,9 @@
     <sheet name="Pt Value Analysis" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tables!$A$1:$F$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tables!$B$1:$G$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
     <author>Keith</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E9F86DB3-32F0-4C4D-B010-4B9243F98F96}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E9F86DB3-32F0-4C4D-B010-4B9243F98F96}">
       <text>
         <r>
           <rPr>
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="224">
   <si>
     <t>Table</t>
   </si>
@@ -794,9 +793,6 @@
     <t>Today</t>
   </si>
   <si>
-    <t>GameDate</t>
-  </si>
-  <si>
     <t>variable</t>
   </si>
   <si>
@@ -1022,12 +1018,43 @@
   <si>
     <t xml:space="preserve">         // 08/30/2020 removed Unity Container</t>
   </si>
+  <si>
+    <t>Bball
+Start Date</t>
+  </si>
+  <si>
+    <t>Bball
+ Rows</t>
+  </si>
+  <si>
+    <t>SqlX
+Start Date</t>
+  </si>
+  <si>
+    <t>SqlX
+Rows</t>
+  </si>
+  <si>
+    <t>Game
+Date</t>
+  </si>
+  <si>
+    <t>PROD
+Start Date</t>
+  </si>
+  <si>
+    <t>PROD
+Rows</t>
+  </si>
+  <si>
+    <t>Sql2012</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,6 +1111,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1105,7 +1140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1152,11 +1187,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1206,6 +1352,32 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1681,13 +1853,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>38</v>
@@ -1701,13 +1873,13 @@
         <v>43989</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1721,10 +1893,10 @@
         <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1735,7 +1907,7 @@
         <v>43989</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,16 +1918,16 @@
         <v>43991</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1766,10 +1938,10 @@
         <v>43991</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,7 +1949,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1785,7 +1957,7 @@
         <v>4.2</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,7 +1965,7 @@
         <v>4.3</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,7 +1976,7 @@
         <v>44084</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1812,7 +1984,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1820,7 +1992,7 @@
         <v>6.1</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1828,20 +2000,20 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1856,528 +2028,734 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDC7D53-38AE-4E14-9D16-5C0AB081DB88}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="38" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="44">
+        <v>43466</v>
+      </c>
+      <c r="I2" s="36">
+        <v>6077</v>
+      </c>
+      <c r="J2" s="42">
+        <v>43466</v>
+      </c>
+      <c r="K2" s="36">
+        <v>6080</v>
+      </c>
+      <c r="L2" s="42">
+        <v>43466</v>
+      </c>
+      <c r="M2" s="37">
+        <v>6076</v>
+      </c>
+      <c r="N2" s="35">
+        <v>39449</v>
+      </c>
+      <c r="O2">
+        <v>49524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="45">
+        <v>40087</v>
+      </c>
+      <c r="I3" s="38">
+        <v>28500</v>
+      </c>
+      <c r="J3" s="34">
+        <v>40087</v>
+      </c>
+      <c r="K3" s="38">
+        <v>28468</v>
+      </c>
+      <c r="L3" s="34">
+        <v>40087</v>
+      </c>
+      <c r="M3" s="39">
+        <v>28502</v>
+      </c>
+      <c r="N3" s="35">
+        <v>40087</v>
+      </c>
+      <c r="O3">
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="45">
+        <v>43370</v>
+      </c>
+      <c r="I4" s="38">
+        <v>4594</v>
+      </c>
+      <c r="J4" s="34">
+        <v>43370</v>
+      </c>
+      <c r="K4" s="38">
+        <v>4608</v>
+      </c>
+      <c r="L4" s="34">
+        <v>43370</v>
+      </c>
+      <c r="M4" s="39">
+        <v>4592</v>
+      </c>
+      <c r="N4" s="35">
+        <v>43370</v>
+      </c>
+      <c r="O4">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="46">
+        <v>40893</v>
+      </c>
+      <c r="I5" s="40">
+        <v>23542</v>
+      </c>
+      <c r="J5" s="43">
+        <v>40893</v>
+      </c>
+      <c r="K5" s="40">
+        <v>23510</v>
+      </c>
+      <c r="L5" s="43">
+        <v>40893</v>
+      </c>
+      <c r="M5" s="41">
+        <v>23540</v>
+      </c>
+      <c r="N5" s="35">
+        <v>40893</v>
+      </c>
+      <c r="O5">
+        <v>23210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="L7" s="33"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="L8" s="33"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="L10" s="33"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="L18" s="33"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" t="s">
         <v>167</v>
       </c>
-      <c r="C2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="L21" s="33"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" t="s">
         <v>162</v>
       </c>
-      <c r="F2" t="b">
+      <c r="G22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" t="s">
         <v>120</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F23" t="s">
         <v>163</v>
       </c>
-      <c r="F3" t="b">
+      <c r="G23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="L23" s="33"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
         <v>163</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" t="b">
+      <c r="G24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" t="s">
-        <v>201</v>
-      </c>
-      <c r="E21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" t="s">
-        <v>205</v>
+      <c r="H24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="L24" s="33"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>202</v>
       </c>
       <c r="D25" t="s">
         <v>204</v>
       </c>
       <c r="E25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" t="s">
         <v>163</v>
       </c>
-      <c r="F25" t="b">
+      <c r="G25" t="b">
         <v>0</v>
       </c>
+      <c r="H25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="L26" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F24" xr:uid="{4CA2DF3C-A29E-4198-8908-251FC956AE4C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
-      <sortCondition ref="A4"/>
+  <autoFilter ref="B1:G25" xr:uid="{4CA2DF3C-A29E-4198-8908-251FC956AE4C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G24">
+      <sortCondition ref="B4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
-    <sortCondition ref="D21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M25">
+    <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2390,7 +2768,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
@@ -2735,33 +3113,33 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" t="s">
         <v>181</v>
-      </c>
-      <c r="D15" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
@@ -2769,16 +3147,16 @@
         <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" t="s">
         <v>176</v>
-      </c>
-      <c r="E17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
@@ -2786,16 +3164,16 @@
         <v>91</v>
       </c>
       <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" t="s">
         <v>177</v>
-      </c>
-      <c r="D18" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -2803,13 +3181,13 @@
         <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -2849,7 +3227,7 @@
         <v>47</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N25" t="s">
         <v>112</v>
@@ -3051,7 +3429,7 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
@@ -3078,32 +3456,32 @@
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F71C96-5524-4DA3-9E2D-7B1A9CBD1E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C866B966-8D8B-4326-8505-10026EC64FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="855" windowWidth="24150" windowHeight="13470" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
@@ -2032,7 +2032,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C866B966-8D8B-4326-8505-10026EC64FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A810E7E1-0795-4063-BE5E-21FA0E8CDD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="855" windowWidth="24150" windowHeight="13470" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="30855" yWindow="255" windowWidth="26265" windowHeight="14280" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Pt Value Analysis" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tables!$B$1:$G$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tables!$A$1:$P$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="227">
   <si>
     <t>Table</t>
   </si>
@@ -1048,6 +1048,16 @@
   </si>
   <si>
     <t>Sql2012</t>
+  </si>
+  <si>
+    <t>Sync Prod
+to Bball</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>sync</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1384,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2027,31 +2037,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDC7D53-38AE-4E14-9D16-5C0AB081DB88}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O26"/>
+  <sheetPr codeName="Sheet2" filterMode="1"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X14" sqref="X14"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="38" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2073,32 +2083,35 @@
       <c r="G1" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="N1" s="29" t="s">
         <v>222</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>223</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2120,184 +2133,120 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" s="43">
         <v>43466</v>
       </c>
-      <c r="I2" s="36">
+      <c r="J2" s="36">
         <v>6077</v>
       </c>
-      <c r="J2" s="42">
+      <c r="K2" s="42">
         <v>43466</v>
       </c>
-      <c r="K2" s="36">
+      <c r="L2" s="36">
         <v>6080</v>
       </c>
-      <c r="L2" s="42">
+      <c r="M2" s="42">
         <v>43466</v>
       </c>
-      <c r="M2" s="37">
+      <c r="N2" s="37">
         <v>6076</v>
       </c>
-      <c r="N2" s="35">
+      <c r="O2" s="35">
         <v>39449</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>49524</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="45">
-        <v>40087</v>
-      </c>
-      <c r="I3" s="38">
-        <v>28500</v>
-      </c>
-      <c r="J3" s="34">
-        <v>40087</v>
-      </c>
-      <c r="K3" s="38">
-        <v>28468</v>
-      </c>
-      <c r="L3" s="34">
-        <v>40087</v>
-      </c>
-      <c r="M3" s="39">
-        <v>28502</v>
-      </c>
-      <c r="N3" s="35">
-        <v>40087</v>
-      </c>
-      <c r="O3">
-        <v>28200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="K3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="39"/>
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="45">
-        <v>43370</v>
-      </c>
-      <c r="I4" s="38">
-        <v>4594</v>
-      </c>
-      <c r="J4" s="34">
-        <v>43370</v>
-      </c>
-      <c r="K4" s="38">
-        <v>4608</v>
-      </c>
-      <c r="L4" s="34">
-        <v>43370</v>
-      </c>
-      <c r="M4" s="39">
-        <v>4592</v>
-      </c>
-      <c r="N4" s="35">
-        <v>43370</v>
-      </c>
-      <c r="O4">
-        <v>4560</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
+      <c r="I4" s="44"/>
+      <c r="K4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="39"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="46">
-        <v>40893</v>
-      </c>
-      <c r="I5" s="40">
-        <v>23542</v>
-      </c>
-      <c r="J5" s="43">
-        <v>40893</v>
-      </c>
-      <c r="K5" s="40">
-        <v>23510</v>
-      </c>
-      <c r="L5" s="43">
-        <v>40893</v>
-      </c>
-      <c r="M5" s="41">
-        <v>23540</v>
-      </c>
-      <c r="N5" s="35">
-        <v>40893</v>
-      </c>
-      <c r="O5">
-        <v>23210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="F6" t="s">
         <v>163</v>
@@ -2305,57 +2254,105 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="L6" s="33"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="L7" s="33"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I7" s="34">
+        <v>40087</v>
+      </c>
+      <c r="J7" s="38">
+        <v>28500</v>
+      </c>
+      <c r="K7" s="34">
+        <v>40087</v>
+      </c>
+      <c r="L7" s="38">
+        <v>28468</v>
+      </c>
+      <c r="M7" s="34">
+        <v>40087</v>
+      </c>
+      <c r="N7" s="38">
+        <v>28502</v>
+      </c>
+      <c r="O7" s="35">
+        <v>40087</v>
+      </c>
+      <c r="P7">
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="L8" s="33"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I8" s="34">
+        <v>43370</v>
+      </c>
+      <c r="J8" s="38">
+        <v>4594</v>
+      </c>
+      <c r="K8" s="34">
+        <v>43370</v>
+      </c>
+      <c r="L8" s="38">
+        <v>4608</v>
+      </c>
+      <c r="M8" s="34">
+        <v>43370</v>
+      </c>
+      <c r="N8" s="38">
+        <v>4592</v>
+      </c>
+      <c r="O8" s="35">
+        <v>43370</v>
+      </c>
+      <c r="P8">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -2374,11 +2371,14 @@
       <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="L9" s="33"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -2397,11 +2397,14 @@
       <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="L10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>44</v>
       </c>
@@ -2420,11 +2423,14 @@
       <c r="G11" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="L11" s="33"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>45</v>
       </c>
@@ -2443,11 +2449,14 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="L12" s="33"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>226</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2466,11 +2475,11 @@
       <c r="G13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>142</v>
       </c>
@@ -2489,42 +2498,66 @@
       <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
       <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="34">
+        <v>40893</v>
+      </c>
+      <c r="J15" s="38">
+        <v>23542</v>
+      </c>
+      <c r="K15" s="34">
+        <v>40893</v>
+      </c>
+      <c r="L15" s="38">
+        <v>23510</v>
+      </c>
+      <c r="M15" s="34">
+        <v>40893</v>
+      </c>
+      <c r="N15" s="38">
+        <v>23540</v>
+      </c>
+      <c r="O15" s="35">
+        <v>40893</v>
+      </c>
+      <c r="P15">
+        <v>23210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>156</v>
-      </c>
-      <c r="E15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" t="s">
-        <v>132</v>
       </c>
       <c r="E16" t="s">
         <v>120</v>
@@ -2535,22 +2568,25 @@
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>226</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="M16" s="33"/>
+    </row>
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
         <v>163</v>
@@ -2558,45 +2594,48 @@
       <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>226</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="M17" s="33"/>
+    </row>
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>152</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>118</v>
-      </c>
-      <c r="F18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="L18" s="33"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" t="s">
-        <v>167</v>
       </c>
       <c r="F19" t="s">
         <v>165</v>
@@ -2604,22 +2643,25 @@
       <c r="G19" t="b">
         <v>1</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>225</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="F20" t="s">
         <v>165</v>
@@ -2627,88 +2669,97 @@
       <c r="G20" t="b">
         <v>1</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="M20" s="33"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="L21" s="33"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="M21" s="33"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="L22" s="33"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>225</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="M22" s="33"/>
+    </row>
+    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="M23" s="33"/>
+    </row>
+    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>139</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>140</v>
-      </c>
-      <c r="E23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="L23" s="33"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" t="s">
-        <v>138</v>
       </c>
       <c r="E24" t="s">
         <v>120</v>
@@ -2719,19 +2770,25 @@
       <c r="G24" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="L24" s="33"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="M24" s="33"/>
+    </row>
+    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>202</v>
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
         <v>163</v>
@@ -2739,23 +2796,28 @@
       <c r="G25" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="L26" s="33"/>
+      <c r="H25" t="s">
+        <v>226</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="M26" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G25" xr:uid="{4CA2DF3C-A29E-4198-8908-251FC956AE4C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G24">
-      <sortCondition ref="B4"/>
-    </sortState>
+  <autoFilter ref="A1:P25" xr:uid="{BC05F02B-D3C6-4A55-B823-8ABB382FCD69}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="copy"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M25">
-    <sortCondition ref="A4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P25">
+    <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A810E7E1-0795-4063-BE5E-21FA0E8CDD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559AC4E2-CF75-4C49-8DB3-D9936CF972DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30855" yWindow="255" windowWidth="26265" windowHeight="14280" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="30645" yWindow="60" windowWidth="25200" windowHeight="13365" activeTab="2" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
     <sheet name="Tables" sheetId="1" r:id="rId2"/>
-    <sheet name="References" sheetId="2" r:id="rId3"/>
-    <sheet name="DLLs" sheetId="7" r:id="rId4"/>
-    <sheet name="UI Adj Page" sheetId="4" r:id="rId5"/>
-    <sheet name="Adj Point Pct" sheetId="5" r:id="rId6"/>
-    <sheet name="Pt Value Analysis" sheetId="8" r:id="rId7"/>
+    <sheet name="SeasonInfo" sheetId="9" r:id="rId3"/>
+    <sheet name="References" sheetId="2" r:id="rId4"/>
+    <sheet name="DLLs" sheetId="7" r:id="rId5"/>
+    <sheet name="UI Adj Page" sheetId="4" r:id="rId6"/>
+    <sheet name="Adj Point Pct" sheetId="5" r:id="rId7"/>
+    <sheet name="Pt Value Analysis" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tables!$A$1:$P$25</definedName>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="244">
   <si>
     <t>Table</t>
   </si>
@@ -1059,12 +1060,63 @@
   <si>
     <t>sync</t>
   </si>
+  <si>
+    <t>LeagueInfoID</t>
+  </si>
+  <si>
+    <t>LeagueName</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>SubSeason</t>
+  </si>
+  <si>
+    <t>Bypass</t>
+  </si>
+  <si>
+    <t>IncludePre</t>
+  </si>
+  <si>
+    <t>IncludePost</t>
+  </si>
+  <si>
+    <t>BoxscoreSource</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>0-Pre</t>
+  </si>
+  <si>
+    <t>BB-Ref</t>
+  </si>
+  <si>
+    <t>1-Reg</t>
+  </si>
+  <si>
+    <t>1-AllStarBreak</t>
+  </si>
+  <si>
+    <t>2-Post</t>
+  </si>
+  <si>
+    <t>3-End</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,6 +1177,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1312,7 +1371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1388,6 +1447,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2040,7 +2101,7 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
@@ -2826,6 +2887,262 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128C6717-6AF0-4DAB-98D5-EEEAD19CDDB8}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="A2:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>67</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="48">
+        <v>44178</v>
+      </c>
+      <c r="D2" s="48">
+        <v>44186</v>
+      </c>
+      <c r="E2" s="47">
+        <v>2021</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="47">
+        <v>0</v>
+      </c>
+      <c r="H2" s="47">
+        <v>1</v>
+      </c>
+      <c r="I2" s="47">
+        <v>0</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="35">
+        <f>D2+1</f>
+        <v>44187</v>
+      </c>
+      <c r="D3" s="35">
+        <v>44238</v>
+      </c>
+      <c r="E3">
+        <f>E2</f>
+        <v>2021</v>
+      </c>
+      <c r="F3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="35">
+        <f t="shared" ref="C4:C7" si="0">D3+1</f>
+        <v>44239</v>
+      </c>
+      <c r="D4" s="35">
+        <v>44248</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E7" si="1">E3</f>
+        <v>2021</v>
+      </c>
+      <c r="F4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="35">
+        <f t="shared" si="0"/>
+        <v>44249</v>
+      </c>
+      <c r="D5" s="35">
+        <v>44332</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="F5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="35">
+        <f t="shared" si="0"/>
+        <v>44333</v>
+      </c>
+      <c r="D6" s="35">
+        <v>44383</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="F6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="35">
+        <f t="shared" si="0"/>
+        <v>44384</v>
+      </c>
+      <c r="D7" s="35">
+        <v>44484</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="F7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5D99A2-B987-4E19-A171-ABA2F3A75912}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q45"/>
@@ -3553,7 +3870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F62BD8A-AB80-4EAF-ADD1-A729FC57348B}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="D2"/>
@@ -3579,7 +3896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF307F37-89F6-4478-B427-6D1C32C2CB55}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B7:B32"/>
@@ -3673,7 +3990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133B7AB1-EBB5-464D-9336-80F19EC6C35C}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D10"/>
@@ -3774,7 +4091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17B75FB-3788-4C0A-A5BD-D95698756B72}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F11"/>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559AC4E2-CF75-4C49-8DB3-D9936CF972DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0B4AC5-324B-4D24-94DA-2CAF9B02150A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30645" yWindow="60" windowWidth="25200" windowHeight="13365" activeTab="2" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="705" yWindow="540" windowWidth="25200" windowHeight="13365" activeTab="6" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
-    <sheet name="Tables" sheetId="1" r:id="rId2"/>
+    <sheet name="Table Doc" sheetId="1" r:id="rId2"/>
     <sheet name="SeasonInfo" sheetId="9" r:id="rId3"/>
     <sheet name="References" sheetId="2" r:id="rId4"/>
     <sheet name="DLLs" sheetId="7" r:id="rId5"/>
@@ -23,7 +23,7 @@
     <sheet name="Pt Value Analysis" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tables!$A$1:$P$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table Doc'!$A$1:$P$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -650,12 +650,6 @@
     <t>Created</t>
   </si>
   <si>
-    <t>uspCalcTM - step 3</t>
-  </si>
-  <si>
-    <t>uspCalcTM - step 4</t>
-  </si>
-  <si>
     <t>Manually</t>
   </si>
   <si>
@@ -1110,6 +1104,12 @@
   </si>
   <si>
     <t>3-End</t>
+  </si>
+  <si>
+    <t>uspCalcTM - step 4 from TeamStatAverages</t>
+  </si>
+  <si>
+    <t>uspCalcTM - step 3 from Boxscores</t>
   </si>
 </sst>
 </file>
@@ -1414,25 +1414,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1449,6 +1434,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1910,12 +1914,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
@@ -1923,16 +1928,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1940,151 +1945,159 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="42">
         <v>43989</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="28">
         <v>43989</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
       </c>
       <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
         <v>170</v>
-      </c>
-      <c r="E3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.1</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="28">
         <v>43989</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="28">
         <v>43991</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E5">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="28">
         <v>43991</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.0999999999999996</v>
       </c>
+      <c r="B7" s="28"/>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.2</v>
       </c>
+      <c r="B8" s="28"/>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4.3</v>
       </c>
+      <c r="B9" s="28"/>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="28">
         <v>44084</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
+      <c r="B11" s="28"/>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6.1</v>
       </c>
+      <c r="B12" s="28"/>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
+      <c r="B13" s="28"/>
       <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="28"/>
+      <c r="D14" t="s">
         <v>205</v>
       </c>
-      <c r="D13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="28"/>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2102,8 +2115,10 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,54 +2137,54 @@
     <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="21" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="N1" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="M1" s="30" t="s">
+      <c r="O1" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="N1" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>223</v>
+      <c r="P1" s="46" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2180,42 +2195,42 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I2" s="43">
+        <v>223</v>
+      </c>
+      <c r="I2" s="36">
         <v>43466</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="29">
         <v>6077</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="35">
         <v>43466</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="29">
         <v>6080</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="35">
         <v>43466</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="30">
         <v>6076</v>
       </c>
-      <c r="O2" s="35">
+      <c r="O2" s="28">
         <v>39449</v>
       </c>
       <c r="P2">
@@ -2227,97 +2242,97 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" s="44"/>
-      <c r="K3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="39"/>
+        <v>224</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="K3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
         <v>158</v>
       </c>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>160</v>
-      </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="K4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="39"/>
+      <c r="I4" s="37"/>
+      <c r="K4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="32"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
         <v>143</v>
       </c>
-      <c r="C5" t="s">
-        <v>145</v>
-      </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="41"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
         <v>202</v>
       </c>
-      <c r="D6" t="s">
-        <v>204</v>
-      </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2333,33 +2348,33 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="27">
         <v>40087</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="31">
         <v>28500</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="27">
         <v>40087</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="31">
         <v>28468</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="27">
         <v>40087</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="31">
         <v>28502</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="28">
         <v>40087</v>
       </c>
       <c r="P7">
@@ -2377,36 +2392,36 @@
         <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="27">
         <v>43370</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="31">
         <v>4594</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="27">
         <v>43370</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="31">
         <v>4608</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="27">
         <v>43370</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="31">
         <v>4592</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="28">
         <v>43370</v>
       </c>
       <c r="P8">
@@ -2424,20 +2439,20 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>225</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="M9" s="33"/>
+        <v>223</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -2447,23 +2462,23 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>226</v>
-      </c>
-      <c r="I10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="M10" s="33"/>
+        <v>224</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -2473,95 +2488,95 @@
         <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>226</v>
-      </c>
-      <c r="I11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="M11" s="33"/>
+        <v>224</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>226</v>
-      </c>
-      <c r="I12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="M12" s="33"/>
+        <v>224</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="M13" s="33"/>
+      <c r="I13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
         <v>142</v>
       </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" t="s">
-        <v>144</v>
-      </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="M14" s="33"/>
+      <c r="I14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="M14" s="26"/>
     </row>
     <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2577,33 +2592,33 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="27">
         <v>40893</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="31">
         <v>23542</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="27">
         <v>40893</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="31">
         <v>23510</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="27">
         <v>40893</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="31">
         <v>23540</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O15" s="28">
         <v>40893</v>
       </c>
       <c r="P15">
@@ -2618,256 +2633,256 @@
         <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>226</v>
-      </c>
-      <c r="I16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="M16" s="33"/>
+        <v>224</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="M16" s="26"/>
     </row>
     <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>226</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="M17" s="33"/>
+        <v>224</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="M17" s="26"/>
     </row>
     <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="M18" s="33"/>
+      <c r="I18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="M18" s="26"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>225</v>
-      </c>
-      <c r="I19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="M19" s="33"/>
+        <v>223</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="M19" s="26"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>225</v>
-      </c>
-      <c r="I20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="M20" s="33"/>
+        <v>223</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>225</v>
-      </c>
-      <c r="I21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="M21" s="33"/>
+        <v>223</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="M21" s="26"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>225</v>
-      </c>
-      <c r="I22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="M22" s="33"/>
+        <v>223</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="M22" s="26"/>
     </row>
     <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="M23" s="33"/>
+      <c r="I23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="M23" s="26"/>
     </row>
     <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>226</v>
-      </c>
-      <c r="I24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="M24" s="33"/>
+        <v>224</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="M24" s="26"/>
     </row>
     <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>226</v>
-      </c>
-      <c r="I25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="M25" s="33"/>
+        <v>224</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="M25" s="26"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="M26" s="33"/>
+      <c r="I26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="M26" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:P25" xr:uid="{BC05F02B-D3C6-4A55-B823-8ABB382FCD69}">
@@ -2890,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128C6717-6AF0-4DAB-98D5-EEEAD19CDDB8}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="A2:J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,66 +2919,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>67</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" s="41">
+        <v>44178</v>
+      </c>
+      <c r="D2" s="41">
+        <v>44186</v>
+      </c>
+      <c r="E2" s="40">
+        <v>2021</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
-        <v>67</v>
-      </c>
-      <c r="B2" s="47" t="s">
+      <c r="G2" s="40">
+        <v>0</v>
+      </c>
+      <c r="H2" s="40">
+        <v>1</v>
+      </c>
+      <c r="I2" s="40">
+        <v>0</v>
+      </c>
+      <c r="J2" s="40" t="s">
         <v>237</v>
-      </c>
-      <c r="C2" s="48">
-        <v>44178</v>
-      </c>
-      <c r="D2" s="48">
-        <v>44186</v>
-      </c>
-      <c r="E2" s="47">
-        <v>2021</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="G2" s="47">
-        <v>0</v>
-      </c>
-      <c r="H2" s="47">
-        <v>1</v>
-      </c>
-      <c r="I2" s="47">
-        <v>0</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2971,13 +2986,13 @@
         <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="35">
+        <v>235</v>
+      </c>
+      <c r="C3" s="28">
         <f>D2+1</f>
         <v>44187</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="28">
         <v>44238</v>
       </c>
       <c r="E3">
@@ -2985,7 +3000,7 @@
         <v>2021</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2997,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3005,13 +3020,13 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="35">
+        <v>235</v>
+      </c>
+      <c r="C4" s="28">
         <f t="shared" ref="C4:C7" si="0">D3+1</f>
         <v>44239</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="28">
         <v>44248</v>
       </c>
       <c r="E4">
@@ -3019,7 +3034,7 @@
         <v>2021</v>
       </c>
       <c r="F4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3031,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3039,13 +3054,13 @@
         <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="35">
+        <v>235</v>
+      </c>
+      <c r="C5" s="28">
         <f t="shared" si="0"/>
         <v>44249</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="28">
         <v>44332</v>
       </c>
       <c r="E5">
@@ -3053,7 +3068,7 @@
         <v>2021</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3065,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3073,13 +3088,13 @@
         <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="35">
+        <v>235</v>
+      </c>
+      <c r="C6" s="28">
         <f t="shared" si="0"/>
         <v>44333</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="28">
         <v>44383</v>
       </c>
       <c r="E6">
@@ -3087,7 +3102,7 @@
         <v>2021</v>
       </c>
       <c r="F6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3099,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3107,13 +3122,13 @@
         <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="35">
+        <v>235</v>
+      </c>
+      <c r="C7" s="28">
         <f t="shared" si="0"/>
         <v>44384</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="28">
         <v>44484</v>
       </c>
       <c r="E7">
@@ -3121,7 +3136,7 @@
         <v>2021</v>
       </c>
       <c r="F7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3133,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3492,33 +3507,33 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
@@ -3526,16 +3541,16 @@
         <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
@@ -3543,16 +3558,16 @@
         <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" t="s">
         <v>175</v>
-      </c>
-      <c r="E18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -3560,17 +3575,17 @@
         <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
+      <c r="B20" s="22"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
@@ -3606,7 +3621,7 @@
         <v>47</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N25" t="s">
         <v>112</v>
@@ -3628,7 +3643,7 @@
       <c r="D26" s="18">
         <v>45</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="23" t="s">
         <v>106</v>
       </c>
       <c r="N26" t="s">
@@ -3808,7 +3823,7 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
@@ -3835,32 +3850,32 @@
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3901,7 +3916,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B7:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -3995,7 +4010,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4214,19 +4229,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <f>AVERAGE(C2:C8)</f>
         <v>2.4128571428571428</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <f>AVERAGE(C3:C7)</f>
         <v>2.4219999999999997</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="24">
         <f>AVERAGE(C4:C6)</f>
         <v>2.4966666666666675</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="24">
         <f>(B8-B2)/6</f>
         <v>2.3950000000000009</v>
       </c>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0B4AC5-324B-4D24-94DA-2CAF9B02150A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECA31B8-9A27-466B-ACE8-CBF509569C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="540" windowWidth="25200" windowHeight="13365" activeTab="6" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="29880" yWindow="1440" windowWidth="21600" windowHeight="12600" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table Doc'!$A$1:$P$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2111,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDC7D53-38AE-4E14-9D16-5C0AB081DB88}">
-  <sheetPr codeName="Sheet2" filterMode="1"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2129,7 +2130,8 @@
     <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="44.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="8" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -2237,7 +2239,7 @@
         <v>49524</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>40</v>
       </c>
@@ -2264,7 +2266,7 @@
       <c r="M3" s="26"/>
       <c r="N3" s="32"/>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -2288,7 +2290,7 @@
       <c r="M4" s="26"/>
       <c r="N4" s="32"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>141</v>
       </c>
@@ -2314,7 +2316,7 @@
       <c r="M5" s="39"/>
       <c r="N5" s="34"/>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>200</v>
       </c>
@@ -2334,7 +2336,7 @@
       <c r="K6" s="26"/>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2381,7 +2383,7 @@
         <v>28200</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2454,7 +2456,7 @@
       <c r="K9" s="26"/>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -2480,7 +2482,7 @@
       <c r="K10" s="26"/>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>44</v>
       </c>
@@ -2506,7 +2508,7 @@
       <c r="K11" s="26"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>45</v>
       </c>
@@ -2532,7 +2534,7 @@
       <c r="K12" s="26"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -2555,7 +2557,7 @@
       <c r="K13" s="26"/>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>140</v>
       </c>
@@ -2578,7 +2580,7 @@
       <c r="K14" s="26"/>
       <c r="M14" s="26"/>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>23210</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>47</v>
       </c>
@@ -2651,7 +2653,7 @@
       <c r="K16" s="26"/>
       <c r="M16" s="26"/>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>48</v>
       </c>
@@ -2677,7 +2679,7 @@
       <c r="K17" s="26"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>49</v>
       </c>
@@ -2804,7 +2806,7 @@
       <c r="K22" s="26"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>53</v>
       </c>
@@ -2827,7 +2829,7 @@
       <c r="K23" s="26"/>
       <c r="M23" s="26"/>
     </row>
-    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>54</v>
       </c>
@@ -2853,7 +2855,7 @@
       <c r="K24" s="26"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>55</v>
       </c>
@@ -2885,13 +2887,7 @@
       <c r="M26" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P25" xr:uid="{BC05F02B-D3C6-4A55-B823-8ABB382FCD69}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="copy"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P25" xr:uid="{BC05F02B-D3C6-4A55-B823-8ABB382FCD69}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P25">
     <sortCondition ref="B2"/>
   </sortState>
@@ -3023,14 +3019,14 @@
         <v>235</v>
       </c>
       <c r="C4" s="28">
-        <f t="shared" ref="C4:C7" si="0">D3+1</f>
+        <f>D3+1</f>
         <v>44239</v>
       </c>
       <c r="D4" s="28">
         <v>44248</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E7" si="1">E3</f>
+        <f>E3</f>
         <v>2021</v>
       </c>
       <c r="F4" t="s">
@@ -3057,14 +3053,14 @@
         <v>235</v>
       </c>
       <c r="C5" s="28">
-        <f t="shared" si="0"/>
+        <f>D4+1</f>
         <v>44249</v>
       </c>
       <c r="D5" s="28">
         <v>44332</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f>E4</f>
         <v>2021</v>
       </c>
       <c r="F5" t="s">
@@ -3091,14 +3087,14 @@
         <v>235</v>
       </c>
       <c r="C6" s="28">
-        <f t="shared" si="0"/>
+        <f>D5+1</f>
         <v>44333</v>
       </c>
       <c r="D6" s="28">
         <v>44383</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f>E5</f>
         <v>2021</v>
       </c>
       <c r="F6" t="s">
@@ -3125,14 +3121,14 @@
         <v>235</v>
       </c>
       <c r="C7" s="28">
-        <f t="shared" si="0"/>
+        <f>D6+1</f>
         <v>44384</v>
       </c>
       <c r="D7" s="28">
         <v>44484</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f>E6</f>
         <v>2021</v>
       </c>
       <c r="F7" t="s">
@@ -4010,7 +4006,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4055,7 +4051,7 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="0">B4 * $B$10</f>
+        <f>B4 * $B$10</f>
         <v>24.25</v>
       </c>
     </row>
@@ -4067,7 +4063,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>B5 * $B$10</f>
         <v>9.6999999999999993</v>
       </c>
     </row>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECA31B8-9A27-466B-ACE8-CBF509569C3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C636B697-B686-4F65-BA32-A5F930249499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="1440" windowWidth="21600" windowHeight="12600" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="1770" yWindow="1395" windowWidth="26940" windowHeight="11835" activeTab="7" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table Doc'!$A$1:$P$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2115,7 +2114,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2902,7 +2901,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,7 +2988,7 @@
         <v>44187</v>
       </c>
       <c r="D3" s="28">
-        <v>44238</v>
+        <v>44259</v>
       </c>
       <c r="E3">
         <f>E2</f>
@@ -3020,10 +3019,10 @@
       </c>
       <c r="C4" s="28">
         <f>D3+1</f>
-        <v>44239</v>
+        <v>44260</v>
       </c>
       <c r="D4" s="28">
-        <v>44248</v>
+        <v>44266</v>
       </c>
       <c r="E4">
         <f>E3</f>
@@ -3054,7 +3053,7 @@
       </c>
       <c r="C5" s="28">
         <f>D4+1</f>
-        <v>44249</v>
+        <v>44267</v>
       </c>
       <c r="D5" s="28">
         <v>44332</v>
@@ -3912,7 +3911,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B7:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -4107,7 +4106,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C636B697-B686-4F65-BA32-A5F930249499}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42AC450-2E2D-48C6-BF6B-59B04B00FF0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1395" windowWidth="26940" windowHeight="11835" activeTab="7" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="4275" yWindow="1245" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="247">
   <si>
     <t>Table</t>
   </si>
@@ -1085,21 +1085,12 @@
     <t>BoxscoreSource</t>
   </si>
   <si>
-    <t>NBA</t>
-  </si>
-  <si>
     <t>0-Pre</t>
   </si>
   <si>
-    <t>BB-Ref</t>
-  </si>
-  <si>
     <t>1-Reg</t>
   </si>
   <si>
-    <t>1-AllStarBreak</t>
-  </si>
-  <si>
     <t>2-Post</t>
   </si>
   <si>
@@ -1110,6 +1101,24 @@
   </si>
   <si>
     <t>uspCalcTM - step 3 from Boxscores</t>
+  </si>
+  <si>
+    <t>WNBA</t>
+  </si>
+  <si>
+    <t>Covers</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>Paste including LeagueInfoID</t>
+  </si>
+  <si>
+    <t>1-Olympic</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1205,6 +1214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1452,6 +1467,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2712,7 +2737,7 @@
         <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F19" t="s">
         <v>163</v>
@@ -2764,7 +2789,7 @@
         <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F21" t="s">
         <v>163</v>
@@ -2898,10 +2923,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128C6717-6AF0-4DAB-98D5-EEEAD19CDDB8}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,16 +2941,16 @@
       <c r="A1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="49" t="s">
         <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="49" t="s">
         <v>229</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2940,7 +2965,7 @@
       <c r="I1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="49" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2949,22 +2974,22 @@
         <v>67</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="41">
+        <v>44317</v>
+      </c>
+      <c r="D2" s="41">
+        <v>44329</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="41">
-        <v>44178</v>
-      </c>
-      <c r="D2" s="41">
-        <v>44186</v>
-      </c>
-      <c r="E2" s="40">
-        <v>2021</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>236</v>
-      </c>
       <c r="G2" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="40">
         <v>1</v>
@@ -2973,29 +2998,30 @@
         <v>0</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>68</v>
       </c>
-      <c r="B3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="50" t="str">
+        <f>B2</f>
+        <v>WNBA</v>
+      </c>
+      <c r="C3" s="51">
         <f>D2+1</f>
-        <v>44187</v>
+        <v>44330</v>
       </c>
       <c r="D3" s="28">
-        <v>44259</v>
-      </c>
-      <c r="E3">
+        <v>44391</v>
+      </c>
+      <c r="E3" s="50" t="str">
         <f>E2</f>
-        <v>2021</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3006,30 +3032,32 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>237</v>
+      <c r="J3" s="50" t="str">
+        <f>J2</f>
+        <v>Covers</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="50" t="str">
+        <f t="shared" ref="B4:B7" si="0">B3</f>
+        <v>WNBA</v>
+      </c>
+      <c r="C4" s="51">
         <f>D3+1</f>
-        <v>44260</v>
+        <v>44392</v>
       </c>
       <c r="D4" s="28">
-        <v>44266</v>
-      </c>
-      <c r="E4">
+        <v>44422</v>
+      </c>
+      <c r="E4" s="50" t="str">
         <f>E3</f>
-        <v>2021</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3040,30 +3068,32 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>237</v>
+      <c r="J4" s="50" t="str">
+        <f t="shared" ref="J4:J7" si="1">J3</f>
+        <v>Covers</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>WNBA</v>
+      </c>
+      <c r="C5" s="51">
         <f>D4+1</f>
-        <v>44267</v>
+        <v>44423</v>
       </c>
       <c r="D5" s="28">
-        <v>44332</v>
-      </c>
-      <c r="E5">
+        <v>44461</v>
+      </c>
+      <c r="E5" s="50" t="str">
         <f>E4</f>
-        <v>2021</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3074,30 +3104,32 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>237</v>
+      <c r="J5" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>Covers</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>135</v>
       </c>
-      <c r="B6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="28">
+      <c r="B6" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>WNBA</v>
+      </c>
+      <c r="C6" s="51">
         <f>D5+1</f>
-        <v>44333</v>
+        <v>44462</v>
       </c>
       <c r="D6" s="28">
-        <v>44383</v>
-      </c>
-      <c r="E6">
+        <v>44488</v>
+      </c>
+      <c r="E6" s="50" t="str">
         <f>E5</f>
-        <v>2021</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3108,30 +3140,32 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>237</v>
+      <c r="J6" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>Covers</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>138</v>
       </c>
-      <c r="B7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="28">
+      <c r="B7" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>WNBA</v>
+      </c>
+      <c r="C7" s="51">
         <f>D6+1</f>
-        <v>44384</v>
+        <v>44489</v>
       </c>
       <c r="D7" s="28">
-        <v>44484</v>
-      </c>
-      <c r="E7">
+        <v>44682</v>
+      </c>
+      <c r="E7" s="50" t="str">
         <f>E6</f>
-        <v>2021</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3142,9 +3176,40 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>237</v>
-      </c>
+      <c r="J7" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>Covers</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4106,7 +4171,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42AC450-2E2D-48C6-BF6B-59B04B00FF0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C13BCB-F78C-4182-9D27-47D2870DD035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="1245" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="25980" yWindow="900" windowWidth="27855" windowHeight="12570" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
@@ -23,12 +23,20 @@
     <sheet name="Pt Value Analysis" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table Doc'!$A$1:$P$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table Doc'!$A$1:$S$25</definedName>
+    <definedName name="TD_Lg">'Table Doc'!$T$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -84,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="261">
   <si>
     <t>Table</t>
   </si>
@@ -212,12 +220,6 @@
     <t>AdjustmentsDaily</t>
   </si>
   <si>
-    <t>BoxScoresLastSMin</t>
-  </si>
-  <si>
-    <t>Leaguelnfo</t>
-  </si>
-  <si>
     <t>Lines</t>
   </si>
   <si>
@@ -225,9 +227,6 @@
   </si>
   <si>
     <t>Plays</t>
-  </si>
-  <si>
-    <t>Seasonlnfo</t>
   </si>
   <si>
     <t>Team</t>
@@ -674,9 +673,6 @@
     <t>During Rotation update</t>
   </si>
   <si>
-    <t>TO BE implemented</t>
-  </si>
-  <si>
     <t>Yesterday's results</t>
   </si>
   <si>
@@ -1103,29 +1099,86 @@
     <t>uspCalcTM - step 3 from Boxscores</t>
   </si>
   <si>
-    <t>WNBA</t>
-  </si>
-  <si>
     <t>Covers</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>NOTE</t>
   </si>
   <si>
     <t>Paste including LeagueInfoID</t>
   </si>
   <si>
-    <t>1-Olympic</t>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>Start Date 10/19-2/17 - All star Game 2/20 - 2/24-4/10 Playoff 4/16</t>
+  </si>
+  <si>
+    <t>Pre 10/3 - 10/15</t>
+  </si>
+  <si>
+    <t>1-Allstar</t>
+  </si>
+  <si>
+    <t>Prod
+Table</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>This</t>
+  </si>
+  <si>
+    <t>Min 
+Season</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Dep</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Today's Plays</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>GameDate</t>
+  </si>
+  <si>
+    <t>Season
+Col</t>
+  </si>
+  <si>
+    <t>Line at time Rotation is Updated</t>
+  </si>
+  <si>
+    <t>BoxScoresLast5Min</t>
+  </si>
+  <si>
+    <t>LeagueInfo</t>
+  </si>
+  <si>
+    <t>SeasonInfo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,6 +1249,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1386,7 +1450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1477,6 +1541,14 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1954,13 +2026,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>38</v>
@@ -1974,13 +2046,13 @@
         <v>43989</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,13 +2063,13 @@
         <v>43989</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2008,7 +2080,7 @@
         <v>43989</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,16 +2091,16 @@
         <v>43991</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E5">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,10 +2111,10 @@
         <v>43991</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,7 +2123,7 @@
       </c>
       <c r="B7" s="28"/>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2060,7 +2132,7 @@
       </c>
       <c r="B8" s="28"/>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2069,7 +2141,7 @@
       </c>
       <c r="B9" s="28"/>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2080,7 +2152,7 @@
         <v>44084</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2089,7 +2161,7 @@
       </c>
       <c r="B11" s="28"/>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2098,7 +2170,7 @@
       </c>
       <c r="B12" s="28"/>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2107,22 +2179,22 @@
       </c>
       <c r="B13" s="28"/>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2136,34 +2208,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDC7D53-38AE-4E14-9D16-5C0AB081DB88}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P26"/>
+  <sheetPr codeName="Sheet2" filterMode="1"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="38" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="179.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="21" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="21" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
@@ -2177,43 +2255,55 @@
         <v>2</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="J1" s="47" t="s">
+      <c r="L1" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="Q1" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="R1" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="M1" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="O1" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="P1" s="46" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S1" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2221,16 +2311,16 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -2238,129 +2328,167 @@
       <c r="H2" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L2" s="36">
         <v>43466</v>
       </c>
-      <c r="J2" s="29">
+      <c r="M2" s="29">
         <v>6077</v>
       </c>
-      <c r="K2" s="35">
+      <c r="N2" s="35">
         <v>43466</v>
       </c>
-      <c r="L2" s="29">
+      <c r="O2" s="29">
         <v>6080</v>
       </c>
-      <c r="M2" s="35">
+      <c r="P2" s="35">
         <v>43466</v>
       </c>
-      <c r="N2" s="30">
+      <c r="Q2" s="30">
         <v>6076</v>
       </c>
-      <c r="O2" s="28">
+      <c r="R2" s="28">
         <v>39449</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>49524</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T2" s="58" t="str">
+        <f>"  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B2 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H2 &amp; ") as StartDate , max(" &amp; H2 &amp; ") as EndDate  from " &amp; B2 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+        <v xml:space="preserve">  SELECT 'NBA' as League, 'Adjustments' As 'Table',  Count(*) as Rows, min(StartDate) as StartDate , max(StartDate) as EndDate  from Adjustments where LeagueName = 'NBA'</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="K3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="32"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K3" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="N3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="32"/>
+      <c r="T3" s="58" t="str">
+        <f>"Union  SELECT 'ALL'  as League, '" &amp; B3 &amp; "' As 'Table',  Count(*) as Rows, null, null  from " &amp; B3</f>
+        <v>Union  SELECT 'ALL'  as League, 'AdjustmentsCodes' As 'Table',  Count(*) as Rows, null, null  from AdjustmentsCodes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s">
         <v>157</v>
-      </c>
-      <c r="E4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" t="s">
-        <v>161</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="K4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="32"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="N4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="32"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="34"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>254</v>
+      </c>
+      <c r="L5" s="38"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="34"/>
+    </row>
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J6" t="s">
+        <v>249</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2374,87 +2502,113 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="27">
+      <c r="H7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="27">
         <v>40087</v>
       </c>
-      <c r="J7" s="31">
+      <c r="M7" s="31">
         <v>28500</v>
       </c>
-      <c r="K7" s="27">
+      <c r="N7" s="27">
         <v>40087</v>
       </c>
-      <c r="L7" s="31">
+      <c r="O7" s="31">
         <v>28468</v>
       </c>
-      <c r="M7" s="27">
+      <c r="P7" s="27">
         <v>40087</v>
       </c>
-      <c r="N7" s="31">
+      <c r="Q7" s="31">
         <v>28502</v>
       </c>
-      <c r="O7" s="28">
+      <c r="R7" s="28">
         <v>40087</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>28200</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T7" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B7 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H7 &amp; ") as StartDate , max(" &amp; H7 &amp; ") as EndDate  from " &amp; B7 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+        <v>Union  SELECT 'NBA' as League, 'BoxScores' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from BoxScores where LeagueName = 'NBA'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="27">
+      <c r="H8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J8" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="27">
         <v>43370</v>
       </c>
-      <c r="J8" s="31">
+      <c r="M8" s="31">
         <v>4594</v>
       </c>
-      <c r="K8" s="27">
+      <c r="N8" s="27">
         <v>43370</v>
       </c>
-      <c r="L8" s="31">
+      <c r="O8" s="31">
         <v>4608</v>
       </c>
-      <c r="M8" s="27">
+      <c r="P8" s="27">
         <v>43370</v>
       </c>
-      <c r="N8" s="31">
+      <c r="Q8" s="31">
         <v>4592</v>
       </c>
-      <c r="O8" s="28">
+      <c r="R8" s="28">
         <v>43370</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>4560</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T8" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B8 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H8 &amp; ") as StartDate , max(" &amp; H8 &amp; ") as EndDate  from " &amp; B8 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+        <v>Union  SELECT 'NBA' as League, 'BoxScoresLast5Min' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from BoxScoresLast5Min where LeagueName = 'NBA'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -2465,146 +2619,201 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>223</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="I9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J9" t="s">
+        <v>252</v>
+      </c>
+      <c r="K9" t="s">
+        <v>219</v>
+      </c>
+      <c r="L9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="T9" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B9 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H9 &amp; ") as StartDate , max(" &amp; H9 &amp; ") as EndDate  from " &amp; B9 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+        <v>Union  SELECT 'NBA' as League, 'DailySummary' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from DailySummary where LeagueName = 'NBA'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
-        <v>224</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>245</v>
+      </c>
+      <c r="J10" t="s">
+        <v>248</v>
+      </c>
+      <c r="K10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="T10" s="58" t="str">
+        <f>"Union  SELECT 'ALL'  as League, '" &amp; B10 &amp; "' As 'Table',  Count(*) as Rows, null, null  from " &amp; B10</f>
+        <v>Union  SELECT 'ALL'  as League, 'LeagueInfo' As 'Table',  Count(*) as Rows, null, null  from LeagueInfo</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>224</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="I11" t="s">
+        <v>245</v>
+      </c>
+      <c r="J11" t="s">
+        <v>246</v>
+      </c>
+      <c r="K11" t="s">
+        <v>220</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="T11" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B11 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H11 &amp; ") as StartDate , max(" &amp; H11 &amp; ") as EndDate  from " &amp; B11 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+        <v>Union  SELECT 'NBA' as League, 'Lines' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from Lines where LeagueName = 'NBA'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
-        <v>224</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>245</v>
+      </c>
+      <c r="J12" t="s">
+        <v>248</v>
+      </c>
+      <c r="K12" t="s">
+        <v>220</v>
+      </c>
+      <c r="L12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="T12" s="58" t="str">
+        <f>"Union  SELECT 'ALL'  as League, '" &amp; B12 &amp; "' As 'Table',  Count(*) as Rows, null, null  from " &amp; B12</f>
+        <v>Union  SELECT 'ALL'  as League, 'ParmTable' As 'Table',  Count(*) as Rows, null, null  from ParmTable</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J13" t="s">
+        <v>249</v>
+      </c>
+      <c r="L13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="P13" s="26"/>
+    </row>
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="M14" s="26"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>254</v>
+      </c>
+      <c r="L14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2618,301 +2827,431 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="27">
+      <c r="H15" t="s">
+        <v>255</v>
+      </c>
+      <c r="I15" t="s">
+        <v>245</v>
+      </c>
+      <c r="J15" t="s">
+        <v>252</v>
+      </c>
+      <c r="L15" s="27">
         <v>40893</v>
       </c>
-      <c r="J15" s="31">
+      <c r="M15" s="31">
         <v>23542</v>
       </c>
-      <c r="K15" s="27">
+      <c r="N15" s="27">
         <v>40893</v>
       </c>
-      <c r="L15" s="31">
+      <c r="O15" s="31">
         <v>23510</v>
       </c>
-      <c r="M15" s="27">
+      <c r="P15" s="27">
         <v>40893</v>
       </c>
-      <c r="N15" s="31">
+      <c r="Q15" s="31">
         <v>23540</v>
       </c>
-      <c r="O15" s="28">
+      <c r="R15" s="28">
         <v>40893</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>23210</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T15" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B15 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H15 &amp; ") as StartDate , max(" &amp; H15 &amp; ") as EndDate  from " &amp; B15 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+        <v>Union  SELECT 'NBA' as League, 'Rotation' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from Rotation where LeagueName = 'NBA'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>224</v>
-      </c>
-      <c r="I16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="M16" s="26"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>245</v>
+      </c>
+      <c r="J16" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="T16" s="58" t="str">
+        <f t="shared" ref="T16:T17" si="0">"Union  SELECT 'ALL'  as League, '" &amp; B16 &amp; "' As 'Table',  Count(*) as Rows, null, null  from " &amp; B16</f>
+        <v>Union  SELECT 'ALL'  as League, 'SeasonInfo' As 'Table',  Count(*) as Rows, null, null  from SeasonInfo</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
-        <v>224</v>
-      </c>
-      <c r="I17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="M17" s="26"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>245</v>
+      </c>
+      <c r="J17" t="s">
+        <v>248</v>
+      </c>
+      <c r="K17" t="s">
+        <v>220</v>
+      </c>
+      <c r="L17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="T17" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>Union  SELECT 'ALL'  as League, 'Team' As 'Table',  Count(*) as Rows, null, null  from Team</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="M18" s="26"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>250</v>
+      </c>
+      <c r="J18" t="s">
+        <v>249</v>
+      </c>
+      <c r="L18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="P18" s="26"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>223</v>
-      </c>
-      <c r="I19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="I19" t="s">
+        <v>245</v>
+      </c>
+      <c r="J19" t="s">
+        <v>252</v>
+      </c>
+      <c r="K19" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="T19" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B19 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H19 &amp; ") as StartDate , max(" &amp; H19 &amp; ") as EndDate  from " &amp; B19 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+        <v>Union  SELECT 'NBA' as League, 'TeamStatsAverages' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from TeamStatsAverages where LeagueName = 'NBA'</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>223</v>
-      </c>
-      <c r="I20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="M20" s="26"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="I20" t="s">
+        <v>245</v>
+      </c>
+      <c r="J20" t="s">
+        <v>252</v>
+      </c>
+      <c r="K20" t="s">
+        <v>219</v>
+      </c>
+      <c r="L20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="T20" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B20 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H20 &amp; ") as StartDate , max(" &amp; H20 &amp; ") as EndDate  from " &amp; B20 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+        <v>Union  SELECT 'NBA' as League, 'TeamStrength' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from TeamStrength where LeagueName = 'NBA'</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>223</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="M21" s="26"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="I21" t="s">
+        <v>245</v>
+      </c>
+      <c r="J21" t="s">
+        <v>252</v>
+      </c>
+      <c r="K21" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="T21" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B21 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H21 &amp; ") as StartDate , max(" &amp; H21 &amp; ") as EndDate  from " &amp; B21 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+        <v>Union  SELECT 'NBA' as League, 'TodaysMatchups' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from TodaysMatchups where LeagueName = 'NBA'</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>223</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="M22" s="26"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="I22" t="s">
+        <v>245</v>
+      </c>
+      <c r="J22" t="s">
+        <v>252</v>
+      </c>
+      <c r="K22" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="T22" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B22 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H22 &amp; ") as StartDate , max(" &amp; H22 &amp; ") as EndDate  from " &amp; B22 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+        <v>Union  SELECT 'NBA' as League, 'TodaysMatchupsResults' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from TodaysMatchupsResults where LeagueName = 'NBA'</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>253</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="M23" s="26"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>255</v>
+      </c>
+      <c r="I23" t="s">
+        <v>245</v>
+      </c>
+      <c r="J23" t="s">
+        <v>252</v>
+      </c>
+      <c r="L23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="T23" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B23 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H23 &amp; ") as StartDate , max(" &amp; H23 &amp; ") as EndDate  from " &amp; B23 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+        <v>Union  SELECT 'NBA' as League, 'TodaysPlays' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from TodaysPlays where LeagueName = 'NBA'</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
-        <v>224</v>
-      </c>
-      <c r="I24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="M24" s="26"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>245</v>
+      </c>
+      <c r="J24" t="s">
+        <v>248</v>
+      </c>
+      <c r="K24" t="s">
+        <v>220</v>
+      </c>
+      <c r="L24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="T24" s="58" t="str">
+        <f t="shared" ref="T24:T25" si="1">"Union  SELECT 'ALL'  as League, '" &amp; B24 &amp; "' As 'Table',  Count(*) as Rows, null, null  from " &amp; B24</f>
+        <v>Union  SELECT 'ALL'  as League, 'UserLeagueParms' As 'Table',  Count(*) as Rows, null, null  from UserLeagueParms</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
-      <c r="H25" t="s">
-        <v>224</v>
-      </c>
-      <c r="I25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="M25" s="26"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="M26" s="26"/>
+      <c r="I25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J25" t="s">
+        <v>248</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="T25" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>Union  SELECT 'ALL'  as League, 'Users' As 'Table',  Count(*) as Rows, null, null  from Users</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="P26" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P25" xr:uid="{BC05F02B-D3C6-4A55-B823-8ABB382FCD69}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P25">
+  <autoFilter ref="A1:S25" xr:uid="{BC05F02B-D3C6-4A55-B823-8ABB382FCD69}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S25">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2923,10 +3262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128C6717-6AF0-4DAB-98D5-EEEAD19CDDB8}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2937,56 +3276,56 @@
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="F1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="G1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="I1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>1144</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="41">
+        <v>44472</v>
+      </c>
+      <c r="D2" s="41">
+        <v>44487</v>
+      </c>
+      <c r="E2" s="52">
+        <v>2122</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>231</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
-        <v>67</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="41">
-        <v>44317</v>
-      </c>
-      <c r="D2" s="41">
-        <v>44329</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>235</v>
       </c>
       <c r="G2" s="40">
         <v>1</v>
@@ -2998,30 +3337,31 @@
         <v>0</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>68</v>
+        <f>A2+1</f>
+        <v>1145</v>
       </c>
       <c r="B3" s="50" t="str">
         <f>B2</f>
-        <v>WNBA</v>
+        <v>NBA</v>
       </c>
       <c r="C3" s="51">
         <f>D2+1</f>
-        <v>44330</v>
+        <v>44488</v>
       </c>
       <c r="D3" s="28">
-        <v>44391</v>
-      </c>
-      <c r="E3" s="50" t="str">
+        <v>44609</v>
+      </c>
+      <c r="E3" s="50">
         <f>E2</f>
-        <v>21</v>
+        <v>2122</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3036,28 +3376,33 @@
         <f>J2</f>
         <v>Covers</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3" t="b">
+        <f>D3&lt;D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>69</v>
+        <f t="shared" ref="A4:A7" si="0">A3+1</f>
+        <v>1146</v>
       </c>
       <c r="B4" s="50" t="str">
-        <f t="shared" ref="B4:B7" si="0">B3</f>
-        <v>WNBA</v>
+        <f t="shared" ref="B4:B7" si="1">B3</f>
+        <v>NBA</v>
       </c>
       <c r="C4" s="51">
         <f>D3+1</f>
-        <v>44392</v>
+        <v>44610</v>
       </c>
       <c r="D4" s="28">
-        <v>44422</v>
-      </c>
-      <c r="E4" s="50" t="str">
+        <v>44615</v>
+      </c>
+      <c r="E4" s="50">
         <f>E3</f>
-        <v>21</v>
+        <v>2122</v>
       </c>
       <c r="F4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3069,31 +3414,36 @@
         <v>0</v>
       </c>
       <c r="J4" s="50" t="str">
-        <f t="shared" ref="J4:J7" si="1">J3</f>
+        <f t="shared" ref="J4:J7" si="2">J3</f>
         <v>Covers</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4" t="b">
+        <f t="shared" ref="M4:M7" si="3">D4&lt;D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>1147</v>
       </c>
       <c r="B5" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v>WNBA</v>
+        <f t="shared" si="1"/>
+        <v>NBA</v>
       </c>
       <c r="C5" s="51">
         <f>D4+1</f>
-        <v>44423</v>
+        <v>44616</v>
       </c>
       <c r="D5" s="28">
-        <v>44461</v>
-      </c>
-      <c r="E5" s="50" t="str">
+        <v>44661</v>
+      </c>
+      <c r="E5" s="50">
         <f>E4</f>
-        <v>21</v>
+        <v>2122</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3105,31 +3455,36 @@
         <v>0</v>
       </c>
       <c r="J5" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>Covers</v>
+      </c>
+      <c r="M5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1148</v>
+      </c>
+      <c r="B6" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>Covers</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>135</v>
-      </c>
-      <c r="B6" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v>WNBA</v>
+        <v>NBA</v>
       </c>
       <c r="C6" s="51">
         <f>D5+1</f>
-        <v>44462</v>
+        <v>44662</v>
       </c>
       <c r="D6" s="28">
-        <v>44488</v>
-      </c>
-      <c r="E6" s="50" t="str">
+        <v>44743</v>
+      </c>
+      <c r="E6" s="50">
         <f>E5</f>
-        <v>21</v>
+        <v>2122</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3141,31 +3496,36 @@
         <v>1</v>
       </c>
       <c r="J6" s="50" t="str">
+        <f t="shared" si="2"/>
+        <v>Covers</v>
+      </c>
+      <c r="M6" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1149</v>
+      </c>
+      <c r="B7" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>Covers</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>138</v>
-      </c>
-      <c r="B7" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v>WNBA</v>
+        <v>NBA</v>
       </c>
       <c r="C7" s="51">
         <f>D6+1</f>
-        <v>44489</v>
+        <v>44744</v>
       </c>
       <c r="D7" s="28">
-        <v>44682</v>
-      </c>
-      <c r="E7" s="50" t="str">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="50">
         <f>E6</f>
-        <v>21</v>
+        <v>2122</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3177,19 +3537,23 @@
         <v>0</v>
       </c>
       <c r="J7" s="50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Covers</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="53"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -3200,9 +3564,11 @@
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
+      <c r="C12" s="55" t="s">
+        <v>241</v>
+      </c>
       <c r="D12" s="54"/>
       <c r="E12" s="53"/>
       <c r="F12" s="53"/>
@@ -3210,6 +3576,11 @@
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="56" t="s">
+        <v>242</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3567,81 +3938,81 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
         <v>173</v>
       </c>
-      <c r="C16" t="s">
-        <v>177</v>
-      </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
@@ -3649,79 +4020,79 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D25" s="19">
         <v>47</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D26" s="18">
         <v>45</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D27">
         <v>45</v>
@@ -3730,24 +4101,24 @@
         <v>1</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D28">
         <v>47</v>
@@ -3756,24 +4127,24 @@
         <v>0</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>47</v>
@@ -3782,116 +4153,116 @@
         <v>1</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F30" s="18"/>
       <c r="N30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F31" s="18"/>
       <c r="N31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D32">
         <v>45</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D33">
         <v>47</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D34">
         <v>47</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D37">
         <v>47</v>
@@ -3899,10 +4270,10 @@
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D38">
         <v>47</v>
@@ -3910,32 +4281,32 @@
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3987,72 +4358,72 @@
   <sheetData>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
@@ -4078,26 +4449,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>-3</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -4109,7 +4480,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -4121,7 +4492,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -4133,15 +4504,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <f>B3 + B4 * 2 + B5 * 3</f>
@@ -4154,7 +4525,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <f xml:space="preserve"> 1 + (B2 / B8)</f>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C13BCB-F78C-4182-9D27-47D2870DD035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87618677-13B9-4A9B-A83C-DC50C04D6585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25980" yWindow="900" windowWidth="27855" windowHeight="12570" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="28095" yWindow="1035" windowWidth="25200" windowHeight="14400" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="Pt Value Analysis" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table Doc'!$A$1:$S$25</definedName>
-    <definedName name="TD_Lg">'Table Doc'!$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table Doc'!$A$1:$T$25</definedName>
+    <definedName name="TD_Lg">'Table Doc'!$U$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="266">
   <si>
     <t>Table</t>
   </si>
@@ -1172,6 +1172,21 @@
   </si>
   <si>
     <t>SeasonInfo</t>
+  </si>
+  <si>
+    <t>For Run TMs Tesing</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>Gened</t>
+  </si>
+  <si>
+    <t>Update as needed</t>
   </si>
 </sst>
 </file>
@@ -2209,39 +2224,40 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDC7D53-38AE-4E14-9D16-5C0AB081DB88}">
   <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="38" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="179.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="179.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="21" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="21" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
@@ -2249,1009 +2265,1073 @@
         <v>0</v>
       </c>
       <c r="C1" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="F1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="G1" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="I1" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="L1" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="M1" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="N1" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="O1" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="Q1" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="R1" s="47" t="s">
         <v>216</v>
-      </c>
-      <c r="R1" s="46" t="s">
-        <v>217</v>
       </c>
       <c r="S1" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="U1" s="21" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" t="s">
         <v>160</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>120</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>116</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>156</v>
       </c>
-      <c r="G2" t="b">
+      <c r="H2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>223</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>245</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>252</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>219</v>
       </c>
-      <c r="L2" s="36">
+      <c r="M2" s="36">
         <v>43466</v>
       </c>
-      <c r="M2" s="29">
+      <c r="N2" s="29">
         <v>6077</v>
       </c>
-      <c r="N2" s="35">
+      <c r="O2" s="35">
         <v>43466</v>
       </c>
-      <c r="O2" s="29">
+      <c r="P2" s="29">
         <v>6080</v>
       </c>
-      <c r="P2" s="35">
+      <c r="Q2" s="35">
         <v>43466</v>
       </c>
-      <c r="Q2" s="30">
+      <c r="R2" s="30">
         <v>6076</v>
       </c>
-      <c r="R2" s="28">
+      <c r="S2" s="28">
         <v>39449</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>49524</v>
       </c>
-      <c r="T2" s="58" t="str">
-        <f>"  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B2 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H2 &amp; ") as StartDate , max(" &amp; H2 &amp; ") as EndDate  from " &amp; B2 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+      <c r="U2" s="58" t="str">
+        <f>"  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B2 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; I2 &amp; ") as StartDate , max(" &amp; I2 &amp; ") as EndDate  from " &amp; B2 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
         <v xml:space="preserve">  SELECT 'NBA' as League, 'Adjustments' As 'Table',  Count(*) as Rows, min(StartDate) as StartDate , max(StartDate) as EndDate  from Adjustments where LeagueName = 'NBA'</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" t="s">
         <v>119</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>118</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>115</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>157</v>
       </c>
-      <c r="G3" t="b">
+      <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>245</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>248</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>220</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="N3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="32"/>
-      <c r="T3" s="58" t="str">
+      <c r="M3" s="37"/>
+      <c r="O3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="32"/>
+      <c r="U3" s="58" t="str">
         <f>"Union  SELECT 'ALL'  as League, '" &amp; B3 &amp; "' As 'Table',  Count(*) as Rows, null, null  from " &amp; B3</f>
         <v>Union  SELECT 'ALL'  as League, 'AdjustmentsCodes' As 'Table',  Count(*) as Rows, null, null  from AdjustmentsCodes</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>152</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>153</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>154</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>157</v>
       </c>
-      <c r="G4" t="b">
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>250</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>249</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="N4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="32"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="37"/>
+      <c r="O4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="32"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>137</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>139</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>140</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>138</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>157</v>
       </c>
-      <c r="G5" t="b">
+      <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>254</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="34"/>
-    </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="38"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>196</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>198</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>197</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>157</v>
       </c>
-      <c r="G6" t="b">
+      <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>251</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>249</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="P6" s="26"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="Q6" s="26"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>117</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>158</v>
       </c>
-      <c r="G7" t="b">
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>255</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>245</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>252</v>
       </c>
-      <c r="L7" s="27">
+      <c r="M7" s="27">
         <v>40087</v>
       </c>
-      <c r="M7" s="31">
+      <c r="N7" s="31">
         <v>28500</v>
       </c>
-      <c r="N7" s="27">
+      <c r="O7" s="27">
         <v>40087</v>
       </c>
-      <c r="O7" s="31">
+      <c r="P7" s="31">
         <v>28468</v>
       </c>
-      <c r="P7" s="27">
+      <c r="Q7" s="27">
         <v>40087</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="R7" s="31">
         <v>28502</v>
       </c>
-      <c r="R7" s="28">
+      <c r="S7" s="28">
         <v>40087</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>28200</v>
       </c>
-      <c r="T7" s="58" t="str">
-        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B7 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H7 &amp; ") as StartDate , max(" &amp; H7 &amp; ") as EndDate  from " &amp; B7 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+      <c r="U7" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B7 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; I7 &amp; ") as StartDate , max(" &amp; I7 &amp; ") as EndDate  from " &amp; B7 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
         <v>Union  SELECT 'NBA' as League, 'BoxScores' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from BoxScores where LeagueName = 'NBA'</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>258</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>121</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>117</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>158</v>
       </c>
-      <c r="G8" t="b">
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>255</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>245</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>252</v>
       </c>
-      <c r="L8" s="27">
+      <c r="M8" s="27">
         <v>43370</v>
       </c>
-      <c r="M8" s="31">
+      <c r="N8" s="31">
         <v>4594</v>
       </c>
-      <c r="N8" s="27">
+      <c r="O8" s="27">
         <v>43370</v>
       </c>
-      <c r="O8" s="31">
+      <c r="P8" s="31">
         <v>4608</v>
       </c>
-      <c r="P8" s="27">
+      <c r="Q8" s="27">
         <v>43370</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="R8" s="31">
         <v>4592</v>
       </c>
-      <c r="R8" s="28">
+      <c r="S8" s="28">
         <v>43370</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>4560</v>
       </c>
-      <c r="T8" s="58" t="str">
-        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B8 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H8 &amp; ") as StartDate , max(" &amp; H8 &amp; ") as EndDate  from " &amp; B8 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+      <c r="U8" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B8 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; I8 &amp; ") as StartDate , max(" &amp; I8 &amp; ") as EndDate  from " &amp; B8 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
         <v>Union  SELECT 'NBA' as League, 'BoxScoresLast5Min' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from BoxScoresLast5Min where LeagueName = 'NBA'</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>117</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>156</v>
       </c>
-      <c r="G9" t="b">
+      <c r="H9" t="b">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>255</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>245</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>252</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>219</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="T9" s="58" t="str">
-        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B9 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H9 &amp; ") as StartDate , max(" &amp; H9 &amp; ") as EndDate  from " &amp; B9 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+      <c r="M9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="U9" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B9 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; I9 &amp; ") as StartDate , max(" &amp; I9 &amp; ") as EndDate  from " &amp; B9 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
         <v>Union  SELECT 'NBA' as League, 'DailySummary' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from DailySummary where LeagueName = 'NBA'</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>259</v>
       </c>
       <c r="C10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>151</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>115</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>157</v>
       </c>
-      <c r="G10" t="b">
+      <c r="H10" t="b">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>245</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>248</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>220</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="T10" s="58" t="str">
+      <c r="M10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="U10" s="58" t="str">
         <f>"Union  SELECT 'ALL'  as League, '" &amp; B10 &amp; "' As 'Table',  Count(*) as Rows, null, null  from " &amp; B10</f>
         <v>Union  SELECT 'ALL'  as League, 'LeagueInfo' As 'Table',  Count(*) as Rows, null, null  from LeagueInfo</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>42</v>
       </c>
       <c r="C11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>257</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>122</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>156</v>
       </c>
-      <c r="G11" t="b">
+      <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>255</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>245</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>246</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>220</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="T11" s="58" t="str">
-        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B11 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H11 &amp; ") as StartDate , max(" &amp; H11 &amp; ") as EndDate  from " &amp; B11 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+      <c r="M11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="U11" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B11 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; I11 &amp; ") as StartDate , max(" &amp; I11 &amp; ") as EndDate  from " &amp; B11 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
         <v>Union  SELECT 'NBA' as League, 'Lines' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from Lines where LeagueName = 'NBA'</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" t="s">
         <v>124</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>125</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>115</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>157</v>
       </c>
-      <c r="G12" t="b">
+      <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>245</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>248</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>220</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="T12" s="58" t="str">
+      <c r="M12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="U12" s="58" t="str">
         <f>"Union  SELECT 'ALL'  as League, '" &amp; B12 &amp; "' As 'Table',  Count(*) as Rows, null, null  from " &amp; B12</f>
         <v>Union  SELECT 'ALL'  as League, 'ParmTable' As 'Table',  Count(*) as Rows, null, null  from ParmTable</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>144</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>135</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>144</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>157</v>
       </c>
-      <c r="G13" t="b">
+      <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>250</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>249</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="P13" s="26"/>
-    </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="Q13" s="26"/>
+    </row>
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>136</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>141</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>142</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>138</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>157</v>
       </c>
-      <c r="G14" t="b">
+      <c r="H14" t="b">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>254</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="P14" s="26"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="Q14" s="26"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>117</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>156</v>
       </c>
-      <c r="G15" t="b">
+      <c r="H15" t="b">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>255</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>245</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>252</v>
       </c>
-      <c r="L15" s="27">
+      <c r="M15" s="27">
         <v>40893</v>
       </c>
-      <c r="M15" s="31">
+      <c r="N15" s="31">
         <v>23542</v>
       </c>
-      <c r="N15" s="27">
+      <c r="O15" s="27">
         <v>40893</v>
       </c>
-      <c r="O15" s="31">
+      <c r="P15" s="31">
         <v>23510</v>
       </c>
-      <c r="P15" s="27">
+      <c r="Q15" s="27">
         <v>40893</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="R15" s="31">
         <v>23540</v>
       </c>
-      <c r="R15" s="28">
+      <c r="S15" s="28">
         <v>40893</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>23210</v>
       </c>
-      <c r="T15" s="58" t="str">
-        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B15 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H15 &amp; ") as StartDate , max(" &amp; H15 &amp; ") as EndDate  from " &amp; B15 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+      <c r="U15" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B15 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; I15 &amp; ") as StartDate , max(" &amp; I15 &amp; ") as EndDate  from " &amp; B15 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
         <v>Union  SELECT 'NBA' as League, 'Rotation' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from Rotation where LeagueName = 'NBA'</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>260</v>
       </c>
       <c r="C16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>150</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>115</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>157</v>
       </c>
-      <c r="G16" t="b">
+      <c r="H16" t="b">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>245</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>248</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>220</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="T16" s="58" t="str">
-        <f t="shared" ref="T16:T17" si="0">"Union  SELECT 'ALL'  as League, '" &amp; B16 &amp; "' As 'Table',  Count(*) as Rows, null, null  from " &amp; B16</f>
+      <c r="M16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="U16" s="58" t="str">
+        <f t="shared" ref="U16:U17" si="0">"Union  SELECT 'ALL'  as League, '" &amp; B16 &amp; "' As 'Table',  Count(*) as Rows, null, null  from " &amp; B16</f>
         <v>Union  SELECT 'ALL'  as League, 'SeasonInfo' As 'Table',  Count(*) as Rows, null, null  from SeasonInfo</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>45</v>
       </c>
       <c r="C17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" t="s">
         <v>127</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>126</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>115</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>157</v>
       </c>
-      <c r="G17" t="b">
+      <c r="H17" t="b">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>245</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>248</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>220</v>
       </c>
-      <c r="L17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="T17" s="58" t="str">
+      <c r="M17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="U17" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Union  SELECT 'ALL'  as League, 'Team' As 'Table',  Count(*) as Rows, null, null  from Team</v>
       </c>
     </row>
-    <row r="18" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>128</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>129</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>162</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>157</v>
       </c>
-      <c r="G18" t="b">
+      <c r="H18" t="b">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>250</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>249</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="P18" s="26"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="Q18" s="26"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" t="s">
         <v>145</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>146</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>236</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>159</v>
       </c>
-      <c r="G19" t="b">
+      <c r="H19" t="b">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>255</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>245</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>252</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>219</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="T19" s="58" t="str">
-        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B19 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H19 &amp; ") as StartDate , max(" &amp; H19 &amp; ") as EndDate  from " &amp; B19 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+      <c r="M19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="U19" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B19 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; I19 &amp; ") as StartDate , max(" &amp; I19 &amp; ") as EndDate  from " &amp; B19 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
         <v>Union  SELECT 'NBA' as League, 'TeamStatsAverages' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from TeamStatsAverages where LeagueName = 'NBA'</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>48</v>
       </c>
       <c r="C20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" t="s">
         <v>147</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>148</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>161</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>159</v>
       </c>
-      <c r="G20" t="b">
+      <c r="H20" t="b">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>255</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>245</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>252</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>219</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="T20" s="58" t="str">
-        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B20 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H20 &amp; ") as StartDate , max(" &amp; H20 &amp; ") as EndDate  from " &amp; B20 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+      <c r="M20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="U20" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B20 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; I20 &amp; ") as StartDate , max(" &amp; I20 &amp; ") as EndDate  from " &amp; B20 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
         <v>Union  SELECT 'NBA' as League, 'TeamStrength' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from TeamStrength where LeagueName = 'NBA'</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" t="s">
         <v>143</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>149</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>235</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>159</v>
       </c>
-      <c r="G21" t="b">
+      <c r="H21" t="b">
         <v>1</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>255</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>245</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>252</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>219</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="T21" s="58" t="str">
-        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B21 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H21 &amp; ") as StartDate , max(" &amp; H21 &amp; ") as EndDate  from " &amp; B21 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+      <c r="M21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="U21" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B21 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; I21 &amp; ") as StartDate , max(" &amp; I21 &amp; ") as EndDate  from " &amp; B21 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
         <v>Union  SELECT 'NBA' as League, 'TodaysMatchups' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from TodaysMatchups where LeagueName = 'NBA'</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>193</v>
       </c>
       <c r="C22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" t="s">
         <v>143</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>123</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>194</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>158</v>
       </c>
-      <c r="G22" t="b">
+      <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>255</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>245</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>252</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>219</v>
       </c>
-      <c r="L22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="T22" s="58" t="str">
-        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B22 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H22 &amp; ") as StartDate , max(" &amp; H22 &amp; ") as EndDate  from " &amp; B22 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+      <c r="M22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="U22" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B22 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; I22 &amp; ") as StartDate , max(" &amp; I22 &amp; ") as EndDate  from " &amp; B22 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
         <v>Union  SELECT 'NBA' as League, 'TodaysMatchupsResults' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from TodaysMatchupsResults where LeagueName = 'NBA'</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>50</v>
       </c>
       <c r="C23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" t="s">
         <v>160</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>253</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>130</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>156</v>
       </c>
-      <c r="G23" t="b">
+      <c r="H23" t="b">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>255</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>245</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>252</v>
       </c>
-      <c r="L23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="T23" s="58" t="str">
-        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B23 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; H23 &amp; ") as StartDate , max(" &amp; H23 &amp; ") as EndDate  from " &amp; B23 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
+      <c r="M23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="U23" s="58" t="str">
+        <f>"Union  SELECT '" &amp; TD_Lg &amp; "' as League, '" &amp; B23 &amp; "' As 'Table',  Count(*) as Rows, min(" &amp; I23 &amp; ") as StartDate , max(" &amp; I23 &amp; ") as EndDate  from " &amp; B23 &amp; " where LeagueName = '" &amp; TD_Lg &amp;"'"</f>
         <v>Union  SELECT 'NBA' as League, 'TodaysPlays' As 'Table',  Count(*) as Rows, min(GameDate) as StartDate , max(GameDate) as EndDate  from TodaysPlays where LeagueName = 'NBA'</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>51</v>
       </c>
       <c r="C24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" t="s">
         <v>133</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>134</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>115</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>157</v>
       </c>
-      <c r="G24" t="b">
+      <c r="H24" t="b">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>245</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>248</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>220</v>
       </c>
-      <c r="L24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="T24" s="58" t="str">
-        <f t="shared" ref="T24:T25" si="1">"Union  SELECT 'ALL'  as League, '" &amp; B24 &amp; "' As 'Table',  Count(*) as Rows, null, null  from " &amp; B24</f>
+      <c r="M24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="U24" s="58" t="str">
+        <f t="shared" ref="U24:U25" si="1">"Union  SELECT 'ALL'  as League, '" &amp; B24 &amp; "' As 'Table',  Count(*) as Rows, null, null  from " &amp; B24</f>
         <v>Union  SELECT 'ALL'  as League, 'UserLeagueParms' As 'Table',  Count(*) as Rows, null, null  from UserLeagueParms</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>52</v>
       </c>
       <c r="C25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" t="s">
         <v>131</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>132</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>115</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>157</v>
       </c>
-      <c r="G25" t="b">
+      <c r="H25" t="b">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>245</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>248</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>220</v>
       </c>
-      <c r="L25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="T25" s="58" t="str">
+      <c r="M25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="U25" s="58" t="str">
         <f t="shared" si="1"/>
         <v>Union  SELECT 'ALL'  as League, 'Users' As 'Table',  Count(*) as Rows, null, null  from Users</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="P26" s="26"/>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="Q26" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S25" xr:uid="{BC05F02B-D3C6-4A55-B823-8ABB382FCD69}">
-    <filterColumn colId="8">
+  <autoFilter ref="A1:T25" xr:uid="{BC05F02B-D3C6-4A55-B823-8ABB382FCD69}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Gened"/>
+        <filter val="Update"/>
+        <filter val="Update as needed"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
       <filters>
         <filter val="Yes"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T25">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BballMVC/_Documentation/BballMVC_Doc.xlsx
+++ b/BballMVC/_Documentation/BballMVC_Doc.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87618677-13B9-4A9B-A83C-DC50C04D6585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7127BB0B-BD27-482A-B726-323A2BE8E8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28095" yWindow="1035" windowWidth="25200" windowHeight="14400" activeTab="1" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
+    <workbookView xWindow="54735" yWindow="1125" windowWidth="23325" windowHeight="14775" activeTab="4" xr2:uid="{03DA9A79-FE21-4B9D-9E56-4EA80CA75797}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="3" r:id="rId1"/>
     <sheet name="Table Doc" sheetId="1" r:id="rId2"/>
     <sheet name="SeasonInfo" sheetId="9" r:id="rId3"/>
     <sheet name="References" sheetId="2" r:id="rId4"/>
-    <sheet name="DLLs" sheetId="7" r:id="rId5"/>
-    <sheet name="UI Adj Page" sheetId="4" r:id="rId6"/>
-    <sheet name="Adj Point Pct" sheetId="5" r:id="rId7"/>
-    <sheet name="Pt Value Analysis" sheetId="8" r:id="rId8"/>
+    <sheet name="Projects" sheetId="10" r:id="rId5"/>
+    <sheet name="DLLs" sheetId="7" r:id="rId6"/>
+    <sheet name="UI Adj Page" sheetId="4" r:id="rId7"/>
+    <sheet name="Adj Point Pct" sheetId="5" r:id="rId8"/>
+    <sheet name="Pt Value Analysis" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table Doc'!$A$1:$T$25</definedName>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="283">
   <si>
     <t>Table</t>
   </si>
@@ -1174,9 +1175,6 @@
     <t>SeasonInfo</t>
   </si>
   <si>
-    <t>For Run TMs Tesing</t>
-  </si>
-  <si>
     <t>Update</t>
   </si>
   <si>
@@ -1187,6 +1185,61 @@
   </si>
   <si>
     <t>Update as needed</t>
+  </si>
+  <si>
+    <t>For TMs Analysis 
+Tesing</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Bball.DAL</t>
+  </si>
+  <si>
+    <t>Bball.DataBaseFunctions</t>
+  </si>
+  <si>
+    <t>Bball.lBAL</t>
+  </si>
+  <si>
+    <t>Bball.lDAL</t>
+  </si>
+  <si>
+    <t>Bball.Unity (unloaded)</t>
+  </si>
+  <si>
+    <t>BballConsole (unloaded)</t>
+  </si>
+  <si>
+    <t>BballMVC.DTOs</t>
+  </si>
+  <si>
+    <t>BballMVC.IDTOs</t>
+  </si>
+  <si>
+    <t>BballMVC.Tests (unloaded)</t>
+  </si>
+  <si>
+    <t>Trace</t>
+  </si>
+  <si>
+    <t>TTl.Logger</t>
+  </si>
+  <si>
+    <t>UnitTest_CS</t>
+  </si>
+  <si>
+    <t>UnitTestProject1 (unloaded)</t>
+  </si>
+  <si>
+    <t>.net ver</t>
+  </si>
+  <si>
+    <t>TTI.Models</t>
+  </si>
+  <si>
+    <t>Bball.BAL</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1565,6 +1618,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2226,11 +2283,11 @@
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,8 +2321,8 @@
       <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>261</v>
+      <c r="C1" s="59" t="s">
+        <v>265</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>1</v>
@@ -2330,7 +2387,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D2" t="s">
         <v>160</v>
@@ -2393,7 +2450,7 @@
         <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
         <v>119</v>
@@ -2521,7 +2578,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2584,7 +2641,7 @@
         <v>258</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
@@ -2644,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -2686,7 +2743,7 @@
         <v>259</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
@@ -2767,7 +2824,7 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D12" t="s">
         <v>124</v>
@@ -2864,7 +2921,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -2924,7 +2981,7 @@
         <v>260</v>
       </c>
       <c r="C16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D16" t="s">
         <v>56</v>
@@ -2963,7 +3020,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D17" t="s">
         <v>127</v>
@@ -3031,7 +3088,7 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D19" t="s">
         <v>145</v>
@@ -3073,7 +3130,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D20" t="s">
         <v>147</v>
@@ -3115,7 +3172,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" t="s">
         <v>143</v>
@@ -3157,7 +3214,7 @@
         <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D22" t="s">
         <v>143</v>
@@ -3238,7 +3295,7 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D24" t="s">
         <v>133</v>
@@ -3674,7 +3731,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -4397,6 +4454,207 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3DA533-B102-4A2C-90CE-FFF053B20E0A}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F62BD8A-AB80-4EAF-ADD1-A729FC57348B}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="D2"/>
@@ -4422,7 +4680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF307F37-89F6-4478-B427-6D1C32C2CB55}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B7:B32"/>
@@ -4516,7 +4774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133B7AB1-EBB5-464D-9336-80F19EC6C35C}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D10"/>
@@ -4617,7 +4875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17B75FB-3788-4C0A-A5BD-D95698756B72}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F11"/>
